--- a/PlayoffGameCalculator.xlsx
+++ b/PlayoffGameCalculator.xlsx
@@ -396,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -458,14 +458,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="42">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -654,25 +661,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -725,6 +713,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -841,51 +839,55 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A6:Q37" totalsRowCount="1" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A6:Q36"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Team" totalsRowLabel="Total" dataDxfId="33" totalsRowDxfId="16"/>
-    <tableColumn id="3" name="GP" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="15">
+    <tableColumn id="1" name="Team" totalsRowLabel="Total" dataDxfId="33" totalsRowDxfId="17"/>
+    <tableColumn id="3" name="GP" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="16">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[Mon]:[Sun]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Mon" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="14">
+    <tableColumn id="4" name="Mon" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="15">
       <calculatedColumnFormula>VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=Q55,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Tue" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="13">
+    <tableColumn id="5" name="Tue" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="14">
       <calculatedColumnFormula>VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=R55,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Wed" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="12">
+    <tableColumn id="6" name="Wed" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="13">
       <calculatedColumnFormula>VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=S55,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Thu" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="11">
+    <tableColumn id="7" name="Thu" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="12">
       <calculatedColumnFormula>VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=T55,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Fri" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="10">
+    <tableColumn id="8" name="Fri" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="11">
       <calculatedColumnFormula>VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=U55,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Sat" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="9">
+    <tableColumn id="9" name="Sat" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="10">
       <calculatedColumnFormula>VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=V55,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Sun" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="8">
+    <tableColumn id="10" name="Sun" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="9">
       <calculatedColumnFormula>VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=W55,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Off Days" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="7">
+    <tableColumn id="11" name="Off Days" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="8">
       <calculatedColumnFormula xml:space="preserve"> (C7+E7+G7+I7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Pop Days" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="6">
+    <tableColumn id="13" name="Pop Days" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="7">
       <calculatedColumnFormula>D7+F7+H7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Week 1" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="5">
-      <calculatedColumnFormula>SUM(INDEX($R$1:$AT$32,MATCH($A7,$R$1:$R$32,0),2):INDEX($R$1:$AT$32,MATCH($A7,$R$1:$R$32,0),8))</calculatedColumnFormula>
+    <tableColumn id="14" name="Week 1" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="6">
+      <calculatedColumnFormula>SUM(INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),8))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Week 2" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="4">
-      <calculatedColumnFormula>SUM(INDEX($R$1:$AT$32,MATCH($A7,$R$1:$R$32,0),9):INDEX($R$1:$AT$32,MATCH($A7,$R$1:$R$32,0),15))</calculatedColumnFormula>
+    <tableColumn id="16" name="Week 2" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="5">
+      <calculatedColumnFormula>SUM(INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),9):INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),15))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Week 3" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="3">
-      <calculatedColumnFormula>SUM(INDEX($R$1:$AT$32,MATCH($A7,$R$1:$R$32,0),16):INDEX($R$1:$AT$32,MATCH($A7,$R$1:$R$32,0),22))</calculatedColumnFormula>
+    <tableColumn id="19" name="Week 3" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="4">
+      <calculatedColumnFormula>SUM(INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),16):INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),22))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="Week 4" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="2">
-      <calculatedColumnFormula>SUM(INDEX($R$1:$AT$32,MATCH($A7,$R$1:$R$32,0),23):INDEX($R$1:$AT$32,MATCH($A7,$R$1:$R$32,0),29))</calculatedColumnFormula>
+    <tableColumn id="18" name="Week 4" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="3">
+      <calculatedColumnFormula>SUM(INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),23):INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),29))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Week 5" dataDxfId="19" totalsRowDxfId="1"/>
-    <tableColumn id="12" name="Week 6" dataDxfId="18" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="Week 5" dataDxfId="18" totalsRowDxfId="2">
+      <calculatedColumnFormula>SUM(INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),30):INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),36))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="Week 6" dataDxfId="0" totalsRowDxfId="1">
+      <calculatedColumnFormula>SUM(INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),37):INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),43))</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1214,7 +1216,7 @@
   <dimension ref="A1:XFC90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -2159,23 +2161,29 @@
         <v>8</v>
       </c>
       <c r="L7" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A7,$R$1:$R$32,0),2):INDEX($R$1:$AT$32,MATCH($A7,$R$1:$R$32,0),8))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),8))</f>
         <v>2</v>
       </c>
       <c r="M7" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A7,$R$1:$R$32,0),9):INDEX($R$1:$AT$32,MATCH($A7,$R$1:$R$32,0),15))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),9):INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),15))</f>
         <v>4</v>
       </c>
       <c r="N7" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A7,$R$1:$R$32,0),16):INDEX($R$1:$AT$32,MATCH($A7,$R$1:$R$32,0),22))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),16):INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),22))</f>
         <v>3</v>
       </c>
       <c r="O7" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A7,$R$1:$R$32,0),23):INDEX($R$1:$AT$32,MATCH($A7,$R$1:$R$32,0),29))</f>
-        <v>3</v>
-      </c>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),23):INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),29))</f>
+        <v>3</v>
+      </c>
+      <c r="P7" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),30):INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),36))</f>
+        <v>4</v>
+      </c>
+      <c r="Q7" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),37):INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),43))</f>
+        <v>3</v>
+      </c>
       <c r="R7" s="2" t="s">
         <v>15</v>
       </c>
@@ -2352,23 +2360,29 @@
         <v>13</v>
       </c>
       <c r="L8" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A8,$R$1:$R$32,0),2):INDEX($R$1:$AT$32,MATCH($A8,$R$1:$R$32,0),8))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A8,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A8,$R$1:$R$32,0),8))</f>
         <v>4</v>
       </c>
       <c r="M8" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A8,$R$1:$R$32,0),9):INDEX($R$1:$AT$32,MATCH($A8,$R$1:$R$32,0),15))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A8,$R$1:$R$32,0),9):INDEX($R$1:$BH$32,MATCH($A8,$R$1:$R$32,0),15))</f>
         <v>2</v>
       </c>
       <c r="N8" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A8,$R$1:$R$32,0),16):INDEX($R$1:$AT$32,MATCH($A8,$R$1:$R$32,0),22))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A8,$R$1:$R$32,0),16):INDEX($R$1:$BH$32,MATCH($A8,$R$1:$R$32,0),22))</f>
         <v>4</v>
       </c>
       <c r="O8" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A8,$R$1:$R$32,0),23):INDEX($R$1:$AT$32,MATCH($A8,$R$1:$R$32,0),29))</f>
-        <v>4</v>
-      </c>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A8,$R$1:$R$32,0),23):INDEX($R$1:$BH$32,MATCH($A8,$R$1:$R$32,0),29))</f>
+        <v>4</v>
+      </c>
+      <c r="P8" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A8,$R$1:$R$32,0),30):INDEX($R$1:$BH$32,MATCH($A8,$R$1:$R$32,0),36))</f>
+        <v>4</v>
+      </c>
+      <c r="Q8" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A8,$R$1:$R$32,0),37):INDEX($R$1:$BH$32,MATCH($A8,$R$1:$R$32,0),43))</f>
+        <v>3</v>
+      </c>
       <c r="R8" s="2" t="s">
         <v>16</v>
       </c>
@@ -2545,23 +2559,29 @@
         <v>14</v>
       </c>
       <c r="L9" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A9,$R$1:$R$32,0),2):INDEX($R$1:$AT$32,MATCH($A9,$R$1:$R$32,0),8))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A9,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A9,$R$1:$R$32,0),8))</f>
         <v>3</v>
       </c>
       <c r="M9" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A9,$R$1:$R$32,0),9):INDEX($R$1:$AT$32,MATCH($A9,$R$1:$R$32,0),15))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A9,$R$1:$R$32,0),9):INDEX($R$1:$BH$32,MATCH($A9,$R$1:$R$32,0),15))</f>
         <v>3</v>
       </c>
       <c r="N9" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A9,$R$1:$R$32,0),16):INDEX($R$1:$AT$32,MATCH($A9,$R$1:$R$32,0),22))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A9,$R$1:$R$32,0),16):INDEX($R$1:$BH$32,MATCH($A9,$R$1:$R$32,0),22))</f>
         <v>3</v>
       </c>
       <c r="O9" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A9,$R$1:$R$32,0),23):INDEX($R$1:$AT$32,MATCH($A9,$R$1:$R$32,0),29))</f>
-        <v>4</v>
-      </c>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A9,$R$1:$R$32,0),23):INDEX($R$1:$BH$32,MATCH($A9,$R$1:$R$32,0),29))</f>
+        <v>4</v>
+      </c>
+      <c r="P9" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A9,$R$1:$R$32,0),30):INDEX($R$1:$BH$32,MATCH($A9,$R$1:$R$32,0),36))</f>
+        <v>4</v>
+      </c>
+      <c r="Q9" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A9,$R$1:$R$32,0),37):INDEX($R$1:$BH$32,MATCH($A9,$R$1:$R$32,0),43))</f>
+        <v>3</v>
+      </c>
       <c r="R9" t="s">
         <v>17</v>
       </c>
@@ -2738,23 +2758,29 @@
         <v>11</v>
       </c>
       <c r="L10" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A10,$R$1:$R$32,0),2):INDEX($R$1:$AT$32,MATCH($A10,$R$1:$R$32,0),8))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A10,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A10,$R$1:$R$32,0),8))</f>
         <v>4</v>
       </c>
       <c r="M10" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A10,$R$1:$R$32,0),9):INDEX($R$1:$AT$32,MATCH($A10,$R$1:$R$32,0),15))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A10,$R$1:$R$32,0),9):INDEX($R$1:$BH$32,MATCH($A10,$R$1:$R$32,0),15))</f>
         <v>3</v>
       </c>
       <c r="N10" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A10,$R$1:$R$32,0),16):INDEX($R$1:$AT$32,MATCH($A10,$R$1:$R$32,0),22))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A10,$R$1:$R$32,0),16):INDEX($R$1:$BH$32,MATCH($A10,$R$1:$R$32,0),22))</f>
         <v>3</v>
       </c>
       <c r="O10" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A10,$R$1:$R$32,0),23):INDEX($R$1:$AT$32,MATCH($A10,$R$1:$R$32,0),29))</f>
-        <v>3</v>
-      </c>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A10,$R$1:$R$32,0),23):INDEX($R$1:$BH$32,MATCH($A10,$R$1:$R$32,0),29))</f>
+        <v>3</v>
+      </c>
+      <c r="P10" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A10,$R$1:$R$32,0),30):INDEX($R$1:$BH$32,MATCH($A10,$R$1:$R$32,0),36))</f>
+        <v>3</v>
+      </c>
+      <c r="Q10" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A10,$R$1:$R$32,0),37):INDEX($R$1:$BH$32,MATCH($A10,$R$1:$R$32,0),43))</f>
+        <v>4</v>
+      </c>
       <c r="R10" t="s">
         <v>18</v>
       </c>
@@ -2931,23 +2957,29 @@
         <v>16</v>
       </c>
       <c r="L11" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A11,$R$1:$R$32,0),2):INDEX($R$1:$AT$32,MATCH($A11,$R$1:$R$32,0),8))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A11,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A11,$R$1:$R$32,0),8))</f>
         <v>4</v>
       </c>
       <c r="M11" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A11,$R$1:$R$32,0),9):INDEX($R$1:$AT$32,MATCH($A11,$R$1:$R$32,0),15))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A11,$R$1:$R$32,0),9):INDEX($R$1:$BH$32,MATCH($A11,$R$1:$R$32,0),15))</f>
         <v>3</v>
       </c>
       <c r="N11" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A11,$R$1:$R$32,0),16):INDEX($R$1:$AT$32,MATCH($A11,$R$1:$R$32,0),22))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A11,$R$1:$R$32,0),16):INDEX($R$1:$BH$32,MATCH($A11,$R$1:$R$32,0),22))</f>
         <v>5</v>
       </c>
       <c r="O11" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A11,$R$1:$R$32,0),23):INDEX($R$1:$AT$32,MATCH($A11,$R$1:$R$32,0),29))</f>
-        <v>3</v>
-      </c>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A11,$R$1:$R$32,0),23):INDEX($R$1:$BH$32,MATCH($A11,$R$1:$R$32,0),29))</f>
+        <v>3</v>
+      </c>
+      <c r="P11" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A11,$R$1:$R$32,0),30):INDEX($R$1:$BH$32,MATCH($A11,$R$1:$R$32,0),36))</f>
+        <v>5</v>
+      </c>
+      <c r="Q11" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A11,$R$1:$R$32,0),37):INDEX($R$1:$BH$32,MATCH($A11,$R$1:$R$32,0),43))</f>
+        <v>4</v>
+      </c>
       <c r="R11" t="s">
         <v>19</v>
       </c>
@@ -3124,23 +3156,29 @@
         <v>14</v>
       </c>
       <c r="L12" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A12,$R$1:$R$32,0),2):INDEX($R$1:$AT$32,MATCH($A12,$R$1:$R$32,0),8))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A12,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A12,$R$1:$R$32,0),8))</f>
         <v>4</v>
       </c>
       <c r="M12" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A12,$R$1:$R$32,0),9):INDEX($R$1:$AT$32,MATCH($A12,$R$1:$R$32,0),15))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A12,$R$1:$R$32,0),9):INDEX($R$1:$BH$32,MATCH($A12,$R$1:$R$32,0),15))</f>
         <v>3</v>
       </c>
       <c r="N12" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A12,$R$1:$R$32,0),16):INDEX($R$1:$AT$32,MATCH($A12,$R$1:$R$32,0),22))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A12,$R$1:$R$32,0),16):INDEX($R$1:$BH$32,MATCH($A12,$R$1:$R$32,0),22))</f>
         <v>4</v>
       </c>
       <c r="O12" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A12,$R$1:$R$32,0),23):INDEX($R$1:$AT$32,MATCH($A12,$R$1:$R$32,0),29))</f>
-        <v>3</v>
-      </c>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A12,$R$1:$R$32,0),23):INDEX($R$1:$BH$32,MATCH($A12,$R$1:$R$32,0),29))</f>
+        <v>3</v>
+      </c>
+      <c r="P12" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A12,$R$1:$R$32,0),30):INDEX($R$1:$BH$32,MATCH($A12,$R$1:$R$32,0),36))</f>
+        <v>4</v>
+      </c>
+      <c r="Q12" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A12,$R$1:$R$32,0),37):INDEX($R$1:$BH$32,MATCH($A12,$R$1:$R$32,0),43))</f>
+        <v>4</v>
+      </c>
       <c r="R12" t="s">
         <v>20</v>
       </c>
@@ -3317,23 +3355,29 @@
         <v>9</v>
       </c>
       <c r="L13" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A13,$R$1:$R$32,0),2):INDEX($R$1:$AT$32,MATCH($A13,$R$1:$R$32,0),8))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A13,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A13,$R$1:$R$32,0),8))</f>
         <v>3</v>
       </c>
       <c r="M13" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A13,$R$1:$R$32,0),9):INDEX($R$1:$AT$32,MATCH($A13,$R$1:$R$32,0),15))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A13,$R$1:$R$32,0),9):INDEX($R$1:$BH$32,MATCH($A13,$R$1:$R$32,0),15))</f>
         <v>2</v>
       </c>
       <c r="N13" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A13,$R$1:$R$32,0),16):INDEX($R$1:$AT$32,MATCH($A13,$R$1:$R$32,0),22))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A13,$R$1:$R$32,0),16):INDEX($R$1:$BH$32,MATCH($A13,$R$1:$R$32,0),22))</f>
         <v>4</v>
       </c>
       <c r="O13" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A13,$R$1:$R$32,0),23):INDEX($R$1:$AT$32,MATCH($A13,$R$1:$R$32,0),29))</f>
-        <v>3</v>
-      </c>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A13,$R$1:$R$32,0),23):INDEX($R$1:$BH$32,MATCH($A13,$R$1:$R$32,0),29))</f>
+        <v>3</v>
+      </c>
+      <c r="P13" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A13,$R$1:$R$32,0),30):INDEX($R$1:$BH$32,MATCH($A13,$R$1:$R$32,0),36))</f>
+        <v>4</v>
+      </c>
+      <c r="Q13" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A13,$R$1:$R$32,0),37):INDEX($R$1:$BH$32,MATCH($A13,$R$1:$R$32,0),43))</f>
+        <v>3</v>
+      </c>
       <c r="R13" t="s">
         <v>21</v>
       </c>
@@ -3510,23 +3554,29 @@
         <v>11</v>
       </c>
       <c r="L14" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A14,$R$1:$R$32,0),2):INDEX($R$1:$AT$32,MATCH($A14,$R$1:$R$32,0),8))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A14,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A14,$R$1:$R$32,0),8))</f>
         <v>3</v>
       </c>
       <c r="M14" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A14,$R$1:$R$32,0),9):INDEX($R$1:$AT$32,MATCH($A14,$R$1:$R$32,0),15))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A14,$R$1:$R$32,0),9):INDEX($R$1:$BH$32,MATCH($A14,$R$1:$R$32,0),15))</f>
         <v>3</v>
       </c>
       <c r="N14" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A14,$R$1:$R$32,0),16):INDEX($R$1:$AT$32,MATCH($A14,$R$1:$R$32,0),22))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A14,$R$1:$R$32,0),16):INDEX($R$1:$BH$32,MATCH($A14,$R$1:$R$32,0),22))</f>
         <v>4</v>
       </c>
       <c r="O14" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A14,$R$1:$R$32,0),23):INDEX($R$1:$AT$32,MATCH($A14,$R$1:$R$32,0),29))</f>
-        <v>3</v>
-      </c>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A14,$R$1:$R$32,0),23):INDEX($R$1:$BH$32,MATCH($A14,$R$1:$R$32,0),29))</f>
+        <v>3</v>
+      </c>
+      <c r="P14" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A14,$R$1:$R$32,0),30):INDEX($R$1:$BH$32,MATCH($A14,$R$1:$R$32,0),36))</f>
+        <v>4</v>
+      </c>
+      <c r="Q14" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A14,$R$1:$R$32,0),37):INDEX($R$1:$BH$32,MATCH($A14,$R$1:$R$32,0),43))</f>
+        <v>3</v>
+      </c>
       <c r="R14" t="s">
         <v>22</v>
       </c>
@@ -3703,23 +3753,29 @@
         <v>13</v>
       </c>
       <c r="L15" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A15,$R$1:$R$32,0),2):INDEX($R$1:$AT$32,MATCH($A15,$R$1:$R$32,0),8))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A15,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A15,$R$1:$R$32,0),8))</f>
         <v>4</v>
       </c>
       <c r="M15" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A15,$R$1:$R$32,0),9):INDEX($R$1:$AT$32,MATCH($A15,$R$1:$R$32,0),15))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A15,$R$1:$R$32,0),9):INDEX($R$1:$BH$32,MATCH($A15,$R$1:$R$32,0),15))</f>
         <v>3</v>
       </c>
       <c r="N15" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A15,$R$1:$R$32,0),16):INDEX($R$1:$AT$32,MATCH($A15,$R$1:$R$32,0),22))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A15,$R$1:$R$32,0),16):INDEX($R$1:$BH$32,MATCH($A15,$R$1:$R$32,0),22))</f>
         <v>4</v>
       </c>
       <c r="O15" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A15,$R$1:$R$32,0),23):INDEX($R$1:$AT$32,MATCH($A15,$R$1:$R$32,0),29))</f>
-        <v>3</v>
-      </c>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A15,$R$1:$R$32,0),23):INDEX($R$1:$BH$32,MATCH($A15,$R$1:$R$32,0),29))</f>
+        <v>3</v>
+      </c>
+      <c r="P15" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A15,$R$1:$R$32,0),30):INDEX($R$1:$BH$32,MATCH($A15,$R$1:$R$32,0),36))</f>
+        <v>4</v>
+      </c>
+      <c r="Q15" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A15,$R$1:$R$32,0),37):INDEX($R$1:$BH$32,MATCH($A15,$R$1:$R$32,0),43))</f>
+        <v>4</v>
+      </c>
       <c r="R15" t="s">
         <v>23</v>
       </c>
@@ -3896,23 +3952,29 @@
         <v>12</v>
       </c>
       <c r="L16" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A16,$R$1:$R$32,0),2):INDEX($R$1:$AT$32,MATCH($A16,$R$1:$R$32,0),8))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A16,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A16,$R$1:$R$32,0),8))</f>
         <v>3</v>
       </c>
       <c r="M16" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A16,$R$1:$R$32,0),9):INDEX($R$1:$AT$32,MATCH($A16,$R$1:$R$32,0),15))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A16,$R$1:$R$32,0),9):INDEX($R$1:$BH$32,MATCH($A16,$R$1:$R$32,0),15))</f>
         <v>3</v>
       </c>
       <c r="N16" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A16,$R$1:$R$32,0),16):INDEX($R$1:$AT$32,MATCH($A16,$R$1:$R$32,0),22))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A16,$R$1:$R$32,0),16):INDEX($R$1:$BH$32,MATCH($A16,$R$1:$R$32,0),22))</f>
         <v>3</v>
       </c>
       <c r="O16" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A16,$R$1:$R$32,0),23):INDEX($R$1:$AT$32,MATCH($A16,$R$1:$R$32,0),29))</f>
-        <v>4</v>
-      </c>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A16,$R$1:$R$32,0),23):INDEX($R$1:$BH$32,MATCH($A16,$R$1:$R$32,0),29))</f>
+        <v>4</v>
+      </c>
+      <c r="P16" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A16,$R$1:$R$32,0),30):INDEX($R$1:$BH$32,MATCH($A16,$R$1:$R$32,0),36))</f>
+        <v>4</v>
+      </c>
+      <c r="Q16" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A16,$R$1:$R$32,0),37):INDEX($R$1:$BH$32,MATCH($A16,$R$1:$R$32,0),43))</f>
+        <v>3</v>
+      </c>
       <c r="R16" t="s">
         <v>24</v>
       </c>
@@ -4089,23 +4151,29 @@
         <v>11</v>
       </c>
       <c r="L17" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A17,$R$1:$R$32,0),2):INDEX($R$1:$AT$32,MATCH($A17,$R$1:$R$32,0),8))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A17,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A17,$R$1:$R$32,0),8))</f>
         <v>3</v>
       </c>
       <c r="M17" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A17,$R$1:$R$32,0),9):INDEX($R$1:$AT$32,MATCH($A17,$R$1:$R$32,0),15))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A17,$R$1:$R$32,0),9):INDEX($R$1:$BH$32,MATCH($A17,$R$1:$R$32,0),15))</f>
         <v>4</v>
       </c>
       <c r="N17" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A17,$R$1:$R$32,0),16):INDEX($R$1:$AT$32,MATCH($A17,$R$1:$R$32,0),22))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A17,$R$1:$R$32,0),16):INDEX($R$1:$BH$32,MATCH($A17,$R$1:$R$32,0),22))</f>
         <v>3</v>
       </c>
       <c r="O17" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A17,$R$1:$R$32,0),23):INDEX($R$1:$AT$32,MATCH($A17,$R$1:$R$32,0),29))</f>
-        <v>4</v>
-      </c>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A17,$R$1:$R$32,0),23):INDEX($R$1:$BH$32,MATCH($A17,$R$1:$R$32,0),29))</f>
+        <v>4</v>
+      </c>
+      <c r="P17" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A17,$R$1:$R$32,0),30):INDEX($R$1:$BH$32,MATCH($A17,$R$1:$R$32,0),36))</f>
+        <v>4</v>
+      </c>
+      <c r="Q17" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A17,$R$1:$R$32,0),37):INDEX($R$1:$BH$32,MATCH($A17,$R$1:$R$32,0),43))</f>
+        <v>4</v>
+      </c>
       <c r="R17" t="s">
         <v>25</v>
       </c>
@@ -4282,23 +4350,29 @@
         <v>14</v>
       </c>
       <c r="L18" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A18,$R$1:$R$32,0),2):INDEX($R$1:$AT$32,MATCH($A18,$R$1:$R$32,0),8))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A18,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A18,$R$1:$R$32,0),8))</f>
         <v>2</v>
       </c>
       <c r="M18" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A18,$R$1:$R$32,0),9):INDEX($R$1:$AT$32,MATCH($A18,$R$1:$R$32,0),15))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A18,$R$1:$R$32,0),9):INDEX($R$1:$BH$32,MATCH($A18,$R$1:$R$32,0),15))</f>
         <v>3</v>
       </c>
       <c r="N18" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A18,$R$1:$R$32,0),16):INDEX($R$1:$AT$32,MATCH($A18,$R$1:$R$32,0),22))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A18,$R$1:$R$32,0),16):INDEX($R$1:$BH$32,MATCH($A18,$R$1:$R$32,0),22))</f>
         <v>3</v>
       </c>
       <c r="O18" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A18,$R$1:$R$32,0),23):INDEX($R$1:$AT$32,MATCH($A18,$R$1:$R$32,0),29))</f>
-        <v>4</v>
-      </c>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A18,$R$1:$R$32,0),23):INDEX($R$1:$BH$32,MATCH($A18,$R$1:$R$32,0),29))</f>
+        <v>4</v>
+      </c>
+      <c r="P18" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A18,$R$1:$R$32,0),30):INDEX($R$1:$BH$32,MATCH($A18,$R$1:$R$32,0),36))</f>
+        <v>3</v>
+      </c>
+      <c r="Q18" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A18,$R$1:$R$32,0),37):INDEX($R$1:$BH$32,MATCH($A18,$R$1:$R$32,0),43))</f>
+        <v>4</v>
+      </c>
       <c r="R18" t="s">
         <v>26</v>
       </c>
@@ -4475,23 +4549,29 @@
         <v>15</v>
       </c>
       <c r="L19" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A19,$R$1:$R$32,0),2):INDEX($R$1:$AT$32,MATCH($A19,$R$1:$R$32,0),8))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A19,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A19,$R$1:$R$32,0),8))</f>
         <v>3</v>
       </c>
       <c r="M19" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A19,$R$1:$R$32,0),9):INDEX($R$1:$AT$32,MATCH($A19,$R$1:$R$32,0),15))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A19,$R$1:$R$32,0),9):INDEX($R$1:$BH$32,MATCH($A19,$R$1:$R$32,0),15))</f>
         <v>3</v>
       </c>
       <c r="N19" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A19,$R$1:$R$32,0),16):INDEX($R$1:$AT$32,MATCH($A19,$R$1:$R$32,0),22))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A19,$R$1:$R$32,0),16):INDEX($R$1:$BH$32,MATCH($A19,$R$1:$R$32,0),22))</f>
         <v>4</v>
       </c>
       <c r="O19" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A19,$R$1:$R$32,0),23):INDEX($R$1:$AT$32,MATCH($A19,$R$1:$R$32,0),29))</f>
-        <v>3</v>
-      </c>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A19,$R$1:$R$32,0),23):INDEX($R$1:$BH$32,MATCH($A19,$R$1:$R$32,0),29))</f>
+        <v>3</v>
+      </c>
+      <c r="P19" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A19,$R$1:$R$32,0),30):INDEX($R$1:$BH$32,MATCH($A19,$R$1:$R$32,0),36))</f>
+        <v>4</v>
+      </c>
+      <c r="Q19" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A19,$R$1:$R$32,0),37):INDEX($R$1:$BH$32,MATCH($A19,$R$1:$R$32,0),43))</f>
+        <v>4</v>
+      </c>
       <c r="R19" t="s">
         <v>27</v>
       </c>
@@ -4668,23 +4748,29 @@
         <v>13</v>
       </c>
       <c r="L20" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A20,$R$1:$R$32,0),2):INDEX($R$1:$AT$32,MATCH($A20,$R$1:$R$32,0),8))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A20,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A20,$R$1:$R$32,0),8))</f>
         <v>4</v>
       </c>
       <c r="M20" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A20,$R$1:$R$32,0),9):INDEX($R$1:$AT$32,MATCH($A20,$R$1:$R$32,0),15))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A20,$R$1:$R$32,0),9):INDEX($R$1:$BH$32,MATCH($A20,$R$1:$R$32,0),15))</f>
         <v>2</v>
       </c>
       <c r="N20" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A20,$R$1:$R$32,0),16):INDEX($R$1:$AT$32,MATCH($A20,$R$1:$R$32,0),22))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A20,$R$1:$R$32,0),16):INDEX($R$1:$BH$32,MATCH($A20,$R$1:$R$32,0),22))</f>
         <v>4</v>
       </c>
       <c r="O20" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A20,$R$1:$R$32,0),23):INDEX($R$1:$AT$32,MATCH($A20,$R$1:$R$32,0),29))</f>
-        <v>3</v>
-      </c>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A20,$R$1:$R$32,0),23):INDEX($R$1:$BH$32,MATCH($A20,$R$1:$R$32,0),29))</f>
+        <v>3</v>
+      </c>
+      <c r="P20" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A20,$R$1:$R$32,0),30):INDEX($R$1:$BH$32,MATCH($A20,$R$1:$R$32,0),36))</f>
+        <v>4</v>
+      </c>
+      <c r="Q20" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A20,$R$1:$R$32,0),37):INDEX($R$1:$BH$32,MATCH($A20,$R$1:$R$32,0),43))</f>
+        <v>4</v>
+      </c>
       <c r="R20" t="s">
         <v>28</v>
       </c>
@@ -4861,23 +4947,29 @@
         <v>16</v>
       </c>
       <c r="L21" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A21,$R$1:$R$32,0),2):INDEX($R$1:$AT$32,MATCH($A21,$R$1:$R$32,0),8))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A21,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A21,$R$1:$R$32,0),8))</f>
         <v>4</v>
       </c>
       <c r="M21" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A21,$R$1:$R$32,0),9):INDEX($R$1:$AT$32,MATCH($A21,$R$1:$R$32,0),15))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A21,$R$1:$R$32,0),9):INDEX($R$1:$BH$32,MATCH($A21,$R$1:$R$32,0),15))</f>
         <v>4</v>
       </c>
       <c r="N21" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A21,$R$1:$R$32,0),16):INDEX($R$1:$AT$32,MATCH($A21,$R$1:$R$32,0),22))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A21,$R$1:$R$32,0),16):INDEX($R$1:$BH$32,MATCH($A21,$R$1:$R$32,0),22))</f>
         <v>4</v>
       </c>
       <c r="O21" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A21,$R$1:$R$32,0),23):INDEX($R$1:$AT$32,MATCH($A21,$R$1:$R$32,0),29))</f>
-        <v>4</v>
-      </c>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A21,$R$1:$R$32,0),23):INDEX($R$1:$BH$32,MATCH($A21,$R$1:$R$32,0),29))</f>
+        <v>4</v>
+      </c>
+      <c r="P21" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A21,$R$1:$R$32,0),30):INDEX($R$1:$BH$32,MATCH($A21,$R$1:$R$32,0),36))</f>
+        <v>4</v>
+      </c>
+      <c r="Q21" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A21,$R$1:$R$32,0),37):INDEX($R$1:$BH$32,MATCH($A21,$R$1:$R$32,0),43))</f>
+        <v>3</v>
+      </c>
       <c r="R21" t="s">
         <v>29</v>
       </c>
@@ -5054,23 +5146,29 @@
         <v>14</v>
       </c>
       <c r="L22" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A22,$R$1:$R$32,0),2):INDEX($R$1:$AT$32,MATCH($A22,$R$1:$R$32,0),8))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A22,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A22,$R$1:$R$32,0),8))</f>
         <v>4</v>
       </c>
       <c r="M22" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A22,$R$1:$R$32,0),9):INDEX($R$1:$AT$32,MATCH($A22,$R$1:$R$32,0),15))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A22,$R$1:$R$32,0),9):INDEX($R$1:$BH$32,MATCH($A22,$R$1:$R$32,0),15))</f>
         <v>3</v>
       </c>
       <c r="N22" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A22,$R$1:$R$32,0),16):INDEX($R$1:$AT$32,MATCH($A22,$R$1:$R$32,0),22))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A22,$R$1:$R$32,0),16):INDEX($R$1:$BH$32,MATCH($A22,$R$1:$R$32,0),22))</f>
         <v>3</v>
       </c>
       <c r="O22" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A22,$R$1:$R$32,0),23):INDEX($R$1:$AT$32,MATCH($A22,$R$1:$R$32,0),29))</f>
-        <v>3</v>
-      </c>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A22,$R$1:$R$32,0),23):INDEX($R$1:$BH$32,MATCH($A22,$R$1:$R$32,0),29))</f>
+        <v>3</v>
+      </c>
+      <c r="P22" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A22,$R$1:$R$32,0),30):INDEX($R$1:$BH$32,MATCH($A22,$R$1:$R$32,0),36))</f>
+        <v>3</v>
+      </c>
+      <c r="Q22" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A22,$R$1:$R$32,0),37):INDEX($R$1:$BH$32,MATCH($A22,$R$1:$R$32,0),43))</f>
+        <v>4</v>
+      </c>
       <c r="R22" t="s">
         <v>30</v>
       </c>
@@ -5247,23 +5345,29 @@
         <v>14</v>
       </c>
       <c r="L23" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A23,$R$1:$R$32,0),2):INDEX($R$1:$AT$32,MATCH($A23,$R$1:$R$32,0),8))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A23,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A23,$R$1:$R$32,0),8))</f>
         <v>4</v>
       </c>
       <c r="M23" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A23,$R$1:$R$32,0),9):INDEX($R$1:$AT$32,MATCH($A23,$R$1:$R$32,0),15))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A23,$R$1:$R$32,0),9):INDEX($R$1:$BH$32,MATCH($A23,$R$1:$R$32,0),15))</f>
         <v>3</v>
       </c>
       <c r="N23" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A23,$R$1:$R$32,0),16):INDEX($R$1:$AT$32,MATCH($A23,$R$1:$R$32,0),22))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A23,$R$1:$R$32,0),16):INDEX($R$1:$BH$32,MATCH($A23,$R$1:$R$32,0),22))</f>
         <v>4</v>
       </c>
       <c r="O23" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A23,$R$1:$R$32,0),23):INDEX($R$1:$AT$32,MATCH($A23,$R$1:$R$32,0),29))</f>
-        <v>4</v>
-      </c>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A23,$R$1:$R$32,0),23):INDEX($R$1:$BH$32,MATCH($A23,$R$1:$R$32,0),29))</f>
+        <v>4</v>
+      </c>
+      <c r="P23" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A23,$R$1:$R$32,0),30):INDEX($R$1:$BH$32,MATCH($A23,$R$1:$R$32,0),36))</f>
+        <v>2</v>
+      </c>
+      <c r="Q23" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A23,$R$1:$R$32,0),37):INDEX($R$1:$BH$32,MATCH($A23,$R$1:$R$32,0),43))</f>
+        <v>4</v>
+      </c>
       <c r="R23" t="s">
         <v>31</v>
       </c>
@@ -5440,23 +5544,29 @@
         <v>16</v>
       </c>
       <c r="L24" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A24,$R$1:$R$32,0),2):INDEX($R$1:$AT$32,MATCH($A24,$R$1:$R$32,0),8))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A24,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A24,$R$1:$R$32,0),8))</f>
         <v>3</v>
       </c>
       <c r="M24" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A24,$R$1:$R$32,0),9):INDEX($R$1:$AT$32,MATCH($A24,$R$1:$R$32,0),15))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A24,$R$1:$R$32,0),9):INDEX($R$1:$BH$32,MATCH($A24,$R$1:$R$32,0),15))</f>
         <v>3</v>
       </c>
       <c r="N24" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A24,$R$1:$R$32,0),16):INDEX($R$1:$AT$32,MATCH($A24,$R$1:$R$32,0),22))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A24,$R$1:$R$32,0),16):INDEX($R$1:$BH$32,MATCH($A24,$R$1:$R$32,0),22))</f>
         <v>3</v>
       </c>
       <c r="O24" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A24,$R$1:$R$32,0),23):INDEX($R$1:$AT$32,MATCH($A24,$R$1:$R$32,0),29))</f>
-        <v>3</v>
-      </c>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A24,$R$1:$R$32,0),23):INDEX($R$1:$BH$32,MATCH($A24,$R$1:$R$32,0),29))</f>
+        <v>3</v>
+      </c>
+      <c r="P24" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A24,$R$1:$R$32,0),30):INDEX($R$1:$BH$32,MATCH($A24,$R$1:$R$32,0),36))</f>
+        <v>5</v>
+      </c>
+      <c r="Q24" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A24,$R$1:$R$32,0),37):INDEX($R$1:$BH$32,MATCH($A24,$R$1:$R$32,0),43))</f>
+        <v>3</v>
+      </c>
       <c r="R24" t="s">
         <v>32</v>
       </c>
@@ -5633,23 +5743,29 @@
         <v>12</v>
       </c>
       <c r="L25" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A25,$R$1:$R$32,0),2):INDEX($R$1:$AT$32,MATCH($A25,$R$1:$R$32,0),8))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A25,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A25,$R$1:$R$32,0),8))</f>
         <v>3</v>
       </c>
       <c r="M25" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A25,$R$1:$R$32,0),9):INDEX($R$1:$AT$32,MATCH($A25,$R$1:$R$32,0),15))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A25,$R$1:$R$32,0),9):INDEX($R$1:$BH$32,MATCH($A25,$R$1:$R$32,0),15))</f>
         <v>3</v>
       </c>
       <c r="N25" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A25,$R$1:$R$32,0),16):INDEX($R$1:$AT$32,MATCH($A25,$R$1:$R$32,0),22))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A25,$R$1:$R$32,0),16):INDEX($R$1:$BH$32,MATCH($A25,$R$1:$R$32,0),22))</f>
         <v>4</v>
       </c>
       <c r="O25" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A25,$R$1:$R$32,0),23):INDEX($R$1:$AT$32,MATCH($A25,$R$1:$R$32,0),29))</f>
-        <v>3</v>
-      </c>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A25,$R$1:$R$32,0),23):INDEX($R$1:$BH$32,MATCH($A25,$R$1:$R$32,0),29))</f>
+        <v>3</v>
+      </c>
+      <c r="P25" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A25,$R$1:$R$32,0),30):INDEX($R$1:$BH$32,MATCH($A25,$R$1:$R$32,0),36))</f>
+        <v>4</v>
+      </c>
+      <c r="Q25" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A25,$R$1:$R$32,0),37):INDEX($R$1:$BH$32,MATCH($A25,$R$1:$R$32,0),43))</f>
+        <v>4</v>
+      </c>
       <c r="R25" t="s">
         <v>33</v>
       </c>
@@ -5826,23 +5942,29 @@
         <v>10</v>
       </c>
       <c r="L26" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A26,$R$1:$R$32,0),2):INDEX($R$1:$AT$32,MATCH($A26,$R$1:$R$32,0),8))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A26,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A26,$R$1:$R$32,0),8))</f>
         <v>3</v>
       </c>
       <c r="M26" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A26,$R$1:$R$32,0),9):INDEX($R$1:$AT$32,MATCH($A26,$R$1:$R$32,0),15))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A26,$R$1:$R$32,0),9):INDEX($R$1:$BH$32,MATCH($A26,$R$1:$R$32,0),15))</f>
         <v>4</v>
       </c>
       <c r="N26" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A26,$R$1:$R$32,0),16):INDEX($R$1:$AT$32,MATCH($A26,$R$1:$R$32,0),22))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A26,$R$1:$R$32,0),16):INDEX($R$1:$BH$32,MATCH($A26,$R$1:$R$32,0),22))</f>
         <v>3</v>
       </c>
       <c r="O26" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A26,$R$1:$R$32,0),23):INDEX($R$1:$AT$32,MATCH($A26,$R$1:$R$32,0),29))</f>
-        <v>4</v>
-      </c>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A26,$R$1:$R$32,0),23):INDEX($R$1:$BH$32,MATCH($A26,$R$1:$R$32,0),29))</f>
+        <v>4</v>
+      </c>
+      <c r="P26" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A26,$R$1:$R$32,0),30):INDEX($R$1:$BH$32,MATCH($A26,$R$1:$R$32,0),36))</f>
+        <v>3</v>
+      </c>
+      <c r="Q26" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A26,$R$1:$R$32,0),37):INDEX($R$1:$BH$32,MATCH($A26,$R$1:$R$32,0),43))</f>
+        <v>3</v>
+      </c>
       <c r="R26" t="s">
         <v>34</v>
       </c>
@@ -6019,23 +6141,29 @@
         <v>16</v>
       </c>
       <c r="L27" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A27,$R$1:$R$32,0),2):INDEX($R$1:$AT$32,MATCH($A27,$R$1:$R$32,0),8))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A27,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A27,$R$1:$R$32,0),8))</f>
         <v>3</v>
       </c>
       <c r="M27" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A27,$R$1:$R$32,0),9):INDEX($R$1:$AT$32,MATCH($A27,$R$1:$R$32,0),15))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A27,$R$1:$R$32,0),9):INDEX($R$1:$BH$32,MATCH($A27,$R$1:$R$32,0),15))</f>
         <v>4</v>
       </c>
       <c r="N27" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A27,$R$1:$R$32,0),16):INDEX($R$1:$AT$32,MATCH($A27,$R$1:$R$32,0),22))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A27,$R$1:$R$32,0),16):INDEX($R$1:$BH$32,MATCH($A27,$R$1:$R$32,0),22))</f>
         <v>4</v>
       </c>
       <c r="O27" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A27,$R$1:$R$32,0),23):INDEX($R$1:$AT$32,MATCH($A27,$R$1:$R$32,0),29))</f>
-        <v>3</v>
-      </c>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A27,$R$1:$R$32,0),23):INDEX($R$1:$BH$32,MATCH($A27,$R$1:$R$32,0),29))</f>
+        <v>3</v>
+      </c>
+      <c r="P27" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A27,$R$1:$R$32,0),30):INDEX($R$1:$BH$32,MATCH($A27,$R$1:$R$32,0),36))</f>
+        <v>3</v>
+      </c>
+      <c r="Q27" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A27,$R$1:$R$32,0),37):INDEX($R$1:$BH$32,MATCH($A27,$R$1:$R$32,0),43))</f>
+        <v>5</v>
+      </c>
       <c r="R27" t="s">
         <v>35</v>
       </c>
@@ -6212,23 +6340,29 @@
         <v>15</v>
       </c>
       <c r="L28" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A28,$R$1:$R$32,0),2):INDEX($R$1:$AT$32,MATCH($A28,$R$1:$R$32,0),8))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A28,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A28,$R$1:$R$32,0),8))</f>
         <v>3</v>
       </c>
       <c r="M28" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A28,$R$1:$R$32,0),9):INDEX($R$1:$AT$32,MATCH($A28,$R$1:$R$32,0),15))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A28,$R$1:$R$32,0),9):INDEX($R$1:$BH$32,MATCH($A28,$R$1:$R$32,0),15))</f>
         <v>3</v>
       </c>
       <c r="N28" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A28,$R$1:$R$32,0),16):INDEX($R$1:$AT$32,MATCH($A28,$R$1:$R$32,0),22))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A28,$R$1:$R$32,0),16):INDEX($R$1:$BH$32,MATCH($A28,$R$1:$R$32,0),22))</f>
         <v>4</v>
       </c>
       <c r="O28" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A28,$R$1:$R$32,0),23):INDEX($R$1:$AT$32,MATCH($A28,$R$1:$R$32,0),29))</f>
-        <v>4</v>
-      </c>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A28,$R$1:$R$32,0),23):INDEX($R$1:$BH$32,MATCH($A28,$R$1:$R$32,0),29))</f>
+        <v>4</v>
+      </c>
+      <c r="P28" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A28,$R$1:$R$32,0),30):INDEX($R$1:$BH$32,MATCH($A28,$R$1:$R$32,0),36))</f>
+        <v>4</v>
+      </c>
+      <c r="Q28" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A28,$R$1:$R$32,0),37):INDEX($R$1:$BH$32,MATCH($A28,$R$1:$R$32,0),43))</f>
+        <v>3</v>
+      </c>
       <c r="R28" t="s">
         <v>36</v>
       </c>
@@ -6405,23 +6539,29 @@
         <v>7</v>
       </c>
       <c r="L29" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A29,$R$1:$R$32,0),2):INDEX($R$1:$AT$32,MATCH($A29,$R$1:$R$32,0),8))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A29,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A29,$R$1:$R$32,0),8))</f>
         <v>4</v>
       </c>
       <c r="M29" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A29,$R$1:$R$32,0),9):INDEX($R$1:$AT$32,MATCH($A29,$R$1:$R$32,0),15))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A29,$R$1:$R$32,0),9):INDEX($R$1:$BH$32,MATCH($A29,$R$1:$R$32,0),15))</f>
         <v>3</v>
       </c>
       <c r="N29" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A29,$R$1:$R$32,0),16):INDEX($R$1:$AT$32,MATCH($A29,$R$1:$R$32,0),22))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A29,$R$1:$R$32,0),16):INDEX($R$1:$BH$32,MATCH($A29,$R$1:$R$32,0),22))</f>
         <v>4</v>
       </c>
       <c r="O29" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A29,$R$1:$R$32,0),23):INDEX($R$1:$AT$32,MATCH($A29,$R$1:$R$32,0),29))</f>
-        <v>4</v>
-      </c>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A29,$R$1:$R$32,0),23):INDEX($R$1:$BH$32,MATCH($A29,$R$1:$R$32,0),29))</f>
+        <v>4</v>
+      </c>
+      <c r="P29" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A29,$R$1:$R$32,0),30):INDEX($R$1:$BH$32,MATCH($A29,$R$1:$R$32,0),36))</f>
+        <v>3</v>
+      </c>
+      <c r="Q29" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A29,$R$1:$R$32,0),37):INDEX($R$1:$BH$32,MATCH($A29,$R$1:$R$32,0),43))</f>
+        <v>4</v>
+      </c>
       <c r="R29" t="s">
         <v>37</v>
       </c>
@@ -6598,23 +6738,29 @@
         <v>14</v>
       </c>
       <c r="L30" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A30,$R$1:$R$32,0),2):INDEX($R$1:$AT$32,MATCH($A30,$R$1:$R$32,0),8))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A30,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A30,$R$1:$R$32,0),8))</f>
         <v>3</v>
       </c>
       <c r="M30" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A30,$R$1:$R$32,0),9):INDEX($R$1:$AT$32,MATCH($A30,$R$1:$R$32,0),15))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A30,$R$1:$R$32,0),9):INDEX($R$1:$BH$32,MATCH($A30,$R$1:$R$32,0),15))</f>
         <v>4</v>
       </c>
       <c r="N30" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A30,$R$1:$R$32,0),16):INDEX($R$1:$AT$32,MATCH($A30,$R$1:$R$32,0),22))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A30,$R$1:$R$32,0),16):INDEX($R$1:$BH$32,MATCH($A30,$R$1:$R$32,0),22))</f>
         <v>3</v>
       </c>
       <c r="O30" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A30,$R$1:$R$32,0),23):INDEX($R$1:$AT$32,MATCH($A30,$R$1:$R$32,0),29))</f>
-        <v>4</v>
-      </c>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A30,$R$1:$R$32,0),23):INDEX($R$1:$BH$32,MATCH($A30,$R$1:$R$32,0),29))</f>
+        <v>4</v>
+      </c>
+      <c r="P30" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A30,$R$1:$R$32,0),30):INDEX($R$1:$BH$32,MATCH($A30,$R$1:$R$32,0),36))</f>
+        <v>4</v>
+      </c>
+      <c r="Q30" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A30,$R$1:$R$32,0),37):INDEX($R$1:$BH$32,MATCH($A30,$R$1:$R$32,0),43))</f>
+        <v>3</v>
+      </c>
       <c r="R30" t="s">
         <v>38</v>
       </c>
@@ -6791,23 +6937,29 @@
         <v>11</v>
       </c>
       <c r="L31" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A31,$R$1:$R$32,0),2):INDEX($R$1:$AT$32,MATCH($A31,$R$1:$R$32,0),8))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A31,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A31,$R$1:$R$32,0),8))</f>
         <v>3</v>
       </c>
       <c r="M31" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A31,$R$1:$R$32,0),9):INDEX($R$1:$AT$32,MATCH($A31,$R$1:$R$32,0),15))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A31,$R$1:$R$32,0),9):INDEX($R$1:$BH$32,MATCH($A31,$R$1:$R$32,0),15))</f>
         <v>3</v>
       </c>
       <c r="N31" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A31,$R$1:$R$32,0),16):INDEX($R$1:$AT$32,MATCH($A31,$R$1:$R$32,0),22))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A31,$R$1:$R$32,0),16):INDEX($R$1:$BH$32,MATCH($A31,$R$1:$R$32,0),22))</f>
         <v>4</v>
       </c>
       <c r="O31" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A31,$R$1:$R$32,0),23):INDEX($R$1:$AT$32,MATCH($A31,$R$1:$R$32,0),29))</f>
-        <v>3</v>
-      </c>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A31,$R$1:$R$32,0),23):INDEX($R$1:$BH$32,MATCH($A31,$R$1:$R$32,0),29))</f>
+        <v>3</v>
+      </c>
+      <c r="P31" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A31,$R$1:$R$32,0),30):INDEX($R$1:$BH$32,MATCH($A31,$R$1:$R$32,0),36))</f>
+        <v>4</v>
+      </c>
+      <c r="Q31" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A31,$R$1:$R$32,0),37):INDEX($R$1:$BH$32,MATCH($A31,$R$1:$R$32,0),43))</f>
+        <v>4</v>
+      </c>
       <c r="R31" t="s">
         <v>39</v>
       </c>
@@ -6984,23 +7136,29 @@
         <v>12</v>
       </c>
       <c r="L32" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A32,$R$1:$R$32,0),2):INDEX($R$1:$AT$32,MATCH($A32,$R$1:$R$32,0),8))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A32,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A32,$R$1:$R$32,0),8))</f>
         <v>4</v>
       </c>
       <c r="M32" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A32,$R$1:$R$32,0),9):INDEX($R$1:$AT$32,MATCH($A32,$R$1:$R$32,0),15))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A32,$R$1:$R$32,0),9):INDEX($R$1:$BH$32,MATCH($A32,$R$1:$R$32,0),15))</f>
         <v>3</v>
       </c>
       <c r="N32" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A32,$R$1:$R$32,0),16):INDEX($R$1:$AT$32,MATCH($A32,$R$1:$R$32,0),22))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A32,$R$1:$R$32,0),16):INDEX($R$1:$BH$32,MATCH($A32,$R$1:$R$32,0),22))</f>
         <v>4</v>
       </c>
       <c r="O32" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A32,$R$1:$R$32,0),23):INDEX($R$1:$AT$32,MATCH($A32,$R$1:$R$32,0),29))</f>
-        <v>3</v>
-      </c>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A32,$R$1:$R$32,0),23):INDEX($R$1:$BH$32,MATCH($A32,$R$1:$R$32,0),29))</f>
+        <v>3</v>
+      </c>
+      <c r="P32" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A32,$R$1:$R$32,0),30):INDEX($R$1:$BH$32,MATCH($A32,$R$1:$R$32,0),36))</f>
+        <v>4</v>
+      </c>
+      <c r="Q32" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A32,$R$1:$R$32,0),37):INDEX($R$1:$BH$32,MATCH($A32,$R$1:$R$32,0),43))</f>
+        <v>4</v>
+      </c>
       <c r="R32" t="s">
         <v>40</v>
       </c>
@@ -7177,23 +7335,29 @@
         <v>16</v>
       </c>
       <c r="L33" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A33,$R$1:$R$32,0),2):INDEX($R$1:$AT$32,MATCH($A33,$R$1:$R$32,0),8))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A33,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A33,$R$1:$R$32,0),8))</f>
         <v>3</v>
       </c>
       <c r="M33" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A33,$R$1:$R$32,0),9):INDEX($R$1:$AT$32,MATCH($A33,$R$1:$R$32,0),15))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A33,$R$1:$R$32,0),9):INDEX($R$1:$BH$32,MATCH($A33,$R$1:$R$32,0),15))</f>
         <v>3</v>
       </c>
       <c r="N33" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A33,$R$1:$R$32,0),16):INDEX($R$1:$AT$32,MATCH($A33,$R$1:$R$32,0),22))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A33,$R$1:$R$32,0),16):INDEX($R$1:$BH$32,MATCH($A33,$R$1:$R$32,0),22))</f>
         <v>3</v>
       </c>
       <c r="O33" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A33,$R$1:$R$32,0),23):INDEX($R$1:$AT$32,MATCH($A33,$R$1:$R$32,0),29))</f>
-        <v>4</v>
-      </c>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A33,$R$1:$R$32,0),23):INDEX($R$1:$BH$32,MATCH($A33,$R$1:$R$32,0),29))</f>
+        <v>4</v>
+      </c>
+      <c r="P33" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A33,$R$1:$R$32,0),30):INDEX($R$1:$BH$32,MATCH($A33,$R$1:$R$32,0),36))</f>
+        <v>3</v>
+      </c>
+      <c r="Q33" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A33,$R$1:$R$32,0),37):INDEX($R$1:$BH$32,MATCH($A33,$R$1:$R$32,0),43))</f>
+        <v>5</v>
+      </c>
       <c r="S33">
         <f t="shared" ref="S33:AF33" si="9">SUM(S3:S32)</f>
         <v>6</v>
@@ -7408,23 +7572,29 @@
         <v>15</v>
       </c>
       <c r="L34" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A34,$R$1:$R$32,0),2):INDEX($R$1:$AT$32,MATCH($A34,$R$1:$R$32,0),8))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A34,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A34,$R$1:$R$32,0),8))</f>
         <v>4</v>
       </c>
       <c r="M34" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A34,$R$1:$R$32,0),9):INDEX($R$1:$AT$32,MATCH($A34,$R$1:$R$32,0),15))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A34,$R$1:$R$32,0),9):INDEX($R$1:$BH$32,MATCH($A34,$R$1:$R$32,0),15))</f>
         <v>3</v>
       </c>
       <c r="N34" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A34,$R$1:$R$32,0),16):INDEX($R$1:$AT$32,MATCH($A34,$R$1:$R$32,0),22))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A34,$R$1:$R$32,0),16):INDEX($R$1:$BH$32,MATCH($A34,$R$1:$R$32,0),22))</f>
         <v>3</v>
       </c>
       <c r="O34" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A34,$R$1:$R$32,0),23):INDEX($R$1:$AT$32,MATCH($A34,$R$1:$R$32,0),29))</f>
-        <v>4</v>
-      </c>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A34,$R$1:$R$32,0),23):INDEX($R$1:$BH$32,MATCH($A34,$R$1:$R$32,0),29))</f>
+        <v>4</v>
+      </c>
+      <c r="P34" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A34,$R$1:$R$32,0),30):INDEX($R$1:$BH$32,MATCH($A34,$R$1:$R$32,0),36))</f>
+        <v>3</v>
+      </c>
+      <c r="Q34" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A34,$R$1:$R$32,0),37):INDEX($R$1:$BH$32,MATCH($A34,$R$1:$R$32,0),43))</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="35" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A35" s="21" t="s">
@@ -7471,23 +7641,29 @@
         <v>14</v>
       </c>
       <c r="L35" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A35,$R$1:$R$32,0),2):INDEX($R$1:$AT$32,MATCH($A35,$R$1:$R$32,0),8))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A35,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A35,$R$1:$R$32,0),8))</f>
         <v>3</v>
       </c>
       <c r="M35" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A35,$R$1:$R$32,0),9):INDEX($R$1:$AT$32,MATCH($A35,$R$1:$R$32,0),15))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A35,$R$1:$R$32,0),9):INDEX($R$1:$BH$32,MATCH($A35,$R$1:$R$32,0),15))</f>
         <v>4</v>
       </c>
       <c r="N35" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A35,$R$1:$R$32,0),16):INDEX($R$1:$AT$32,MATCH($A35,$R$1:$R$32,0),22))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A35,$R$1:$R$32,0),16):INDEX($R$1:$BH$32,MATCH($A35,$R$1:$R$32,0),22))</f>
         <v>3</v>
       </c>
       <c r="O35" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A35,$R$1:$R$32,0),23):INDEX($R$1:$AT$32,MATCH($A35,$R$1:$R$32,0),29))</f>
-        <v>3</v>
-      </c>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A35,$R$1:$R$32,0),23):INDEX($R$1:$BH$32,MATCH($A35,$R$1:$R$32,0),29))</f>
+        <v>3</v>
+      </c>
+      <c r="P35" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A35,$R$1:$R$32,0),30):INDEX($R$1:$BH$32,MATCH($A35,$R$1:$R$32,0),36))</f>
+        <v>4</v>
+      </c>
+      <c r="Q35" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A35,$R$1:$R$32,0),37):INDEX($R$1:$BH$32,MATCH($A35,$R$1:$R$32,0),43))</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="36" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A36" s="21" t="s">
@@ -7534,23 +7710,29 @@
         <v>12</v>
       </c>
       <c r="L36" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A36,$R$1:$R$32,0),2):INDEX($R$1:$AT$32,MATCH($A36,$R$1:$R$32,0),8))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A36,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A36,$R$1:$R$32,0),8))</f>
         <v>3</v>
       </c>
       <c r="M36" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A36,$R$1:$R$32,0),9):INDEX($R$1:$AT$32,MATCH($A36,$R$1:$R$32,0),15))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A36,$R$1:$R$32,0),9):INDEX($R$1:$BH$32,MATCH($A36,$R$1:$R$32,0),15))</f>
         <v>3</v>
       </c>
       <c r="N36" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A36,$R$1:$R$32,0),16):INDEX($R$1:$AT$32,MATCH($A36,$R$1:$R$32,0),22))</f>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A36,$R$1:$R$32,0),16):INDEX($R$1:$BH$32,MATCH($A36,$R$1:$R$32,0),22))</f>
         <v>4</v>
       </c>
       <c r="O36" s="13">
-        <f>SUM(INDEX($R$1:$AT$32,MATCH($A36,$R$1:$R$32,0),23):INDEX($R$1:$AT$32,MATCH($A36,$R$1:$R$32,0),29))</f>
-        <v>4</v>
-      </c>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A36,$R$1:$R$32,0),23):INDEX($R$1:$BH$32,MATCH($A36,$R$1:$R$32,0),29))</f>
+        <v>4</v>
+      </c>
+      <c r="P36" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A36,$R$1:$R$32,0),30):INDEX($R$1:$BH$32,MATCH($A36,$R$1:$R$32,0),36))</f>
+        <v>2</v>
+      </c>
+      <c r="Q36" s="13">
+        <f>SUM(INDEX($R$1:$BH$32,MATCH($A36,$R$1:$R$32,0),37):INDEX($R$1:$BH$32,MATCH($A36,$R$1:$R$32,0),43))</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="37" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">

--- a/PlayoffGameCalculator.xlsx
+++ b/PlayoffGameCalculator.xlsx
@@ -464,6 +464,14 @@
   </cellStyles>
   <dxfs count="42">
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
@@ -482,12 +490,14 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="7" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -498,12 +508,14 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="7" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -514,10 +526,64 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
@@ -552,127 +618,13 @@
           <bgColor theme="7" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
@@ -692,7 +644,6 @@
           <bgColor theme="7" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -710,6 +661,14 @@
           <bgColor theme="7" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -719,7 +678,23 @@
           <bgColor theme="7" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -732,6 +707,14 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
@@ -742,11 +725,28 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -839,53 +839,53 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A6:Q37" totalsRowCount="1" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A6:Q36"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Team" totalsRowLabel="Total" dataDxfId="33" totalsRowDxfId="17"/>
-    <tableColumn id="3" name="GP" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="16">
+    <tableColumn id="1" name="Team" totalsRowLabel="Total" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="3" name="GP" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[Mon]:[Sun]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Mon" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="15">
+    <tableColumn id="4" name="Mon" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=Q55,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Tue" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="14">
+    <tableColumn id="5" name="Tue" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26">
       <calculatedColumnFormula>VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=R55,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Wed" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="13">
+    <tableColumn id="6" name="Wed" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24">
       <calculatedColumnFormula>VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=S55,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Thu" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="12">
+    <tableColumn id="7" name="Thu" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=T55,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Fri" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="11">
+    <tableColumn id="8" name="Fri" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=U55,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Sat" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="10">
+    <tableColumn id="9" name="Sat" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18">
       <calculatedColumnFormula>VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=V55,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Sun" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="9">
+    <tableColumn id="10" name="Sun" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=W55,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Off Days" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="8">
+    <tableColumn id="11" name="Off Days" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula xml:space="preserve"> (C7+E7+G7+I7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Pop Days" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="7">
+    <tableColumn id="13" name="Pop Days" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>D7+F7+H7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Week 1" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="6">
+    <tableColumn id="14" name="Week 1" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>SUM(INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),8))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Week 2" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="5">
+    <tableColumn id="16" name="Week 2" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>SUM(INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),9):INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),15))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Week 3" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="4">
+    <tableColumn id="19" name="Week 3" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>SUM(INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),16):INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),22))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="Week 4" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="3">
+    <tableColumn id="18" name="Week 4" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>SUM(INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),23):INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),29))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Week 5" dataDxfId="18" totalsRowDxfId="2">
+    <tableColumn id="2" name="Week 5" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>SUM(INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),30):INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),36))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Week 6" dataDxfId="0" totalsRowDxfId="1">
+    <tableColumn id="12" name="Week 6" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>SUM(INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),37):INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),43))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1213,13 +1213,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFC90"/>
+  <dimension ref="A1:BJ90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
@@ -1235,11 +1235,11 @@
     <col min="12" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.6640625" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="4.88671875" customWidth="1"/>
-    <col min="19" max="19" width="5.77734375" customWidth="1"/>
-    <col min="20" max="47" width="3" customWidth="1"/>
-    <col min="48" max="60" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="61" max="16383" width="8.88671875" customWidth="1"/>
+    <col min="18" max="18" width="4.88671875" hidden="1"/>
+    <col min="19" max="19" width="5.77734375" hidden="1"/>
+    <col min="20" max="47" width="3" hidden="1"/>
+    <col min="48" max="60" width="3.21875" hidden="1"/>
+    <col min="61" max="16384" width="8.88671875" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.3">

--- a/PlayoffGameCalculator.xlsx
+++ b/PlayoffGameCalculator.xlsx
@@ -472,14 +472,12 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="7" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -490,14 +488,12 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="7" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -508,82 +504,10 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
@@ -618,13 +542,147 @@
           <bgColor theme="7" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
@@ -644,6 +702,7 @@
           <bgColor theme="7" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -661,6 +720,7 @@
           <bgColor theme="7" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -670,31 +730,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -707,46 +742,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -839,53 +839,53 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A6:Q37" totalsRowCount="1" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A6:Q36"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Team" totalsRowLabel="Total" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="3" name="GP" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="1" name="Team" totalsRowLabel="Total" dataDxfId="33" totalsRowDxfId="16"/>
+    <tableColumn id="3" name="GP" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="15">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[Mon]:[Sun]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Mon" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28">
-      <calculatedColumnFormula>VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=Q55,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</calculatedColumnFormula>
+    <tableColumn id="4" name="Mon" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="14">
+      <calculatedColumnFormula>VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=5,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Tue" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26">
-      <calculatedColumnFormula>VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=R55,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</calculatedColumnFormula>
+    <tableColumn id="5" name="Tue" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="13">
+      <calculatedColumnFormula>VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=5,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Wed" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24">
-      <calculatedColumnFormula>VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=S55,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</calculatedColumnFormula>
+    <tableColumn id="6" name="Wed" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="12">
+      <calculatedColumnFormula>VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=5,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Thu" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22">
-      <calculatedColumnFormula>VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=T55,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</calculatedColumnFormula>
+    <tableColumn id="7" name="Thu" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="11">
+      <calculatedColumnFormula>VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=5,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Fri" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20">
-      <calculatedColumnFormula>VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=U55,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</calculatedColumnFormula>
+    <tableColumn id="8" name="Fri" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="10">
+      <calculatedColumnFormula>VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=5,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Sat" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18">
-      <calculatedColumnFormula>VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=V55,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</calculatedColumnFormula>
+    <tableColumn id="9" name="Sat" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="9">
+      <calculatedColumnFormula>VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=5,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Sun" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16">
-      <calculatedColumnFormula>VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=W55,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</calculatedColumnFormula>
+    <tableColumn id="10" name="Sun" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="8">
+      <calculatedColumnFormula>VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=5,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Off Days" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="11" name="Off Days" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="7">
       <calculatedColumnFormula xml:space="preserve"> (C7+E7+G7+I7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Pop Days" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="13" name="Pop Days" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="6">
       <calculatedColumnFormula>D7+F7+H7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Week 1" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="14" name="Week 1" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="5">
       <calculatedColumnFormula>SUM(INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),8))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Week 2" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="16" name="Week 2" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="4">
       <calculatedColumnFormula>SUM(INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),9):INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),15))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Week 3" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="19" name="Week 3" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="3">
       <calculatedColumnFormula>SUM(INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),16):INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),22))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="Week 4" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="18" name="Week 4" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="2">
       <calculatedColumnFormula>SUM(INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),23):INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),29))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Week 5" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="2" name="Week 5" dataDxfId="19" totalsRowDxfId="1">
       <calculatedColumnFormula>SUM(INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),30):INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),36))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Week 6" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="12" name="Week 6" dataDxfId="18" totalsRowDxfId="0">
       <calculatedColumnFormula>SUM(INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),37):INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),43))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1216,7 +1216,7 @@
   <dimension ref="A1:BJ90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1382,10 +1382,10 @@
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>87</v>
@@ -2122,43 +2122,43 @@
       </c>
       <c r="B7" s="22">
         <f>SUM(Table1[[#This Row],[Mon]:[Sun]])</f>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C7" s="13">
-        <f t="shared" ref="C7:C36" si="0">VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=Q55,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</f>
+        <f t="shared" ref="C7:I36" si="0">VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=5,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D7" s="13">
-        <f t="shared" ref="D7:D36" si="1">VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=R55,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E7" s="13">
-        <f t="shared" ref="E7:E36" si="2">VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=S55,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F7" s="13">
-        <f t="shared" ref="F7:F36" si="3">VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=T55,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G7" s="13">
-        <f t="shared" ref="G7:G36" si="4">VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=U55,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="H7" s="13">
-        <f t="shared" ref="H7:H36" si="5">VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=V55,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I7" s="13">
-        <f t="shared" ref="I7:I36" si="6">VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2-1)*7),FALSE)+IF($B$2&gt;=2,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2)*7),FALSE),0)+IF($B$2&gt;=3,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+1)*7),FALSE),0)+IF($B$2&gt;=4,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+2)*7),FALSE),0)+IF($B$2&gt;=W55,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+3)*7),FALSE),0)+IF($B$2&gt;=6,VLOOKUP($A7,$R$1:$BH$32,(COLUMN()-1+($A$2+4)*7),FALSE),0)</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="J7" s="26">
-        <f t="shared" ref="J7:J36" si="7" xml:space="preserve"> (C7+E7+G7+I7)</f>
-        <v>11</v>
+        <f t="shared" ref="J7:J36" si="1" xml:space="preserve"> (C7+E7+G7+I7)</f>
+        <v>6</v>
       </c>
       <c r="K7" s="26">
-        <f t="shared" ref="K7:K36" si="8">D7+F7+H7</f>
-        <v>8</v>
+        <f t="shared" ref="K7:K36" si="2">D7+F7+H7</f>
+        <v>4</v>
       </c>
       <c r="L7" s="13">
         <f>SUM(INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),8))</f>
@@ -2321,43 +2321,43 @@
       </c>
       <c r="B8" s="22">
         <f>SUM(Table1[[#This Row],[Mon]:[Sun]])</f>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C8" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D8" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E8" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G8" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I8" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E8" s="13">
+        <v>6</v>
+      </c>
+      <c r="K8" s="26">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F8" s="13">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G8" s="13">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="H8" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I8" s="13">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="J8" s="26">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="K8" s="26">
-        <f t="shared" si="8"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="L8" s="13">
         <f>SUM(INDEX($R$1:$BH$32,MATCH($A8,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A8,$R$1:$R$32,0),8))</f>
@@ -2520,43 +2520,43 @@
       </c>
       <c r="B9" s="22">
         <f>SUM(Table1[[#This Row],[Mon]:[Sun]])</f>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C9" s="13">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I9" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="26">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E9" s="13">
+      <c r="K9" s="26">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F9" s="13">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G9" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="13">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I9" s="13">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J9" s="26">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="K9" s="26">
-        <f t="shared" si="8"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="L9" s="13">
         <f>SUM(INDEX($R$1:$BH$32,MATCH($A9,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A9,$R$1:$R$32,0),8))</f>
@@ -2719,43 +2719,43 @@
       </c>
       <c r="B10" s="22">
         <f>SUM(Table1[[#This Row],[Mon]:[Sun]])</f>
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C10" s="13">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="26">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K10" s="26">
+        <f t="shared" si="2"/>
         <v>5</v>
-      </c>
-      <c r="E10" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F10" s="13">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="G10" s="13">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="H10" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I10" s="13">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J10" s="26">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="K10" s="26">
-        <f t="shared" si="8"/>
-        <v>11</v>
       </c>
       <c r="L10" s="13">
         <f>SUM(INDEX($R$1:$BH$32,MATCH($A10,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A10,$R$1:$R$32,0),8))</f>
@@ -2918,43 +2918,43 @@
       </c>
       <c r="B11" s="22">
         <f>SUM(Table1[[#This Row],[Mon]:[Sun]])</f>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C11" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D11" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G11" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J11" s="26">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="E11" s="13">
+        <v>4</v>
+      </c>
+      <c r="K11" s="26">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F11" s="13">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G11" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H11" s="13">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I11" s="13">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="J11" s="26">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="K11" s="26">
-        <f t="shared" si="8"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="L11" s="13">
         <f>SUM(INDEX($R$1:$BH$32,MATCH($A11,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A11,$R$1:$R$32,0),8))</f>
@@ -3117,43 +3117,43 @@
       </c>
       <c r="B12" s="22">
         <f>SUM(Table1[[#This Row],[Mon]:[Sun]])</f>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C12" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D12" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G12" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I12" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J12" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E12" s="13">
+        <v>5</v>
+      </c>
+      <c r="K12" s="26">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F12" s="13">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G12" s="13">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="H12" s="13">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I12" s="13">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="J12" s="26">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="K12" s="26">
-        <f t="shared" si="8"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="L12" s="13">
         <f>SUM(INDEX($R$1:$BH$32,MATCH($A12,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A12,$R$1:$R$32,0),8))</f>
@@ -3316,43 +3316,43 @@
       </c>
       <c r="B13" s="22">
         <f>SUM(Table1[[#This Row],[Mon]:[Sun]])</f>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C13" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D13" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F13" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H13" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J13" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E13" s="13">
+        <v>8</v>
+      </c>
+      <c r="K13" s="26">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F13" s="13">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G13" s="13">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="H13" s="13">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="I13" s="13">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J13" s="26">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="K13" s="26">
-        <f t="shared" si="8"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L13" s="13">
         <f>SUM(INDEX($R$1:$BH$32,MATCH($A13,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A13,$R$1:$R$32,0),8))</f>
@@ -3515,43 +3515,43 @@
       </c>
       <c r="B14" s="22">
         <f>SUM(Table1[[#This Row],[Mon]:[Sun]])</f>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C14" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D14" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G14" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I14" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J14" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E14" s="13">
+        <v>5</v>
+      </c>
+      <c r="K14" s="26">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F14" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="G14" s="13">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="H14" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I14" s="13">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J14" s="26">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="K14" s="26">
-        <f t="shared" si="8"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L14" s="13">
         <f>SUM(INDEX($R$1:$BH$32,MATCH($A14,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A14,$R$1:$R$32,0),8))</f>
@@ -3714,43 +3714,43 @@
       </c>
       <c r="B15" s="22">
         <f>SUM(Table1[[#This Row],[Mon]:[Sun]])</f>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C15" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D15" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F15" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I15" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J15" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E15" s="13">
+        <v>7</v>
+      </c>
+      <c r="K15" s="26">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F15" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="G15" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H15" s="13">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I15" s="13">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="J15" s="26">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="K15" s="26">
-        <f t="shared" si="8"/>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L15" s="13">
         <f>SUM(INDEX($R$1:$BH$32,MATCH($A15,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A15,$R$1:$R$32,0),8))</f>
@@ -3913,43 +3913,43 @@
       </c>
       <c r="B16" s="22">
         <f>SUM(Table1[[#This Row],[Mon]:[Sun]])</f>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C16" s="13">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E16" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G16" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H16" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J16" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E16" s="13">
+        <v>5</v>
+      </c>
+      <c r="K16" s="26">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F16" s="13">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G16" s="13">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="H16" s="13">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="I16" s="13">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J16" s="26">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="K16" s="26">
-        <f t="shared" si="8"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L16" s="13">
         <f>SUM(INDEX($R$1:$BH$32,MATCH($A16,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A16,$R$1:$R$32,0),8))</f>
@@ -4112,43 +4112,43 @@
       </c>
       <c r="B17" s="22">
         <f>SUM(Table1[[#This Row],[Mon]:[Sun]])</f>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C17" s="13">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G17" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I17" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J17" s="26">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E17" s="13">
+      <c r="K17" s="26">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F17" s="13">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="G17" s="13">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="H17" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I17" s="13">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J17" s="26">
-        <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="K17" s="26">
-        <f t="shared" si="8"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L17" s="13">
         <f>SUM(INDEX($R$1:$BH$32,MATCH($A17,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A17,$R$1:$R$32,0),8))</f>
@@ -4311,43 +4311,43 @@
       </c>
       <c r="B18" s="22">
         <f>SUM(Table1[[#This Row],[Mon]:[Sun]])</f>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C18" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D18" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E18" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G18" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I18" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E18" s="13">
+        <v>2</v>
+      </c>
+      <c r="K18" s="26">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F18" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="G18" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H18" s="13">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I18" s="13">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="J18" s="26">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="K18" s="26">
-        <f t="shared" si="8"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="L18" s="13">
         <f>SUM(INDEX($R$1:$BH$32,MATCH($A18,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A18,$R$1:$R$32,0),8))</f>
@@ -4510,43 +4510,43 @@
       </c>
       <c r="B19" s="22">
         <f>SUM(Table1[[#This Row],[Mon]:[Sun]])</f>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C19" s="13">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E19" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G19" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I19" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J19" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E19" s="13">
+        <v>3</v>
+      </c>
+      <c r="K19" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="13">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G19" s="13">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="H19" s="13">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I19" s="13">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="J19" s="26">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="K19" s="26">
-        <f t="shared" si="8"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L19" s="13">
         <f>SUM(INDEX($R$1:$BH$32,MATCH($A19,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A19,$R$1:$R$32,0),8))</f>
@@ -4709,43 +4709,43 @@
       </c>
       <c r="B20" s="22">
         <f>SUM(Table1[[#This Row],[Mon]:[Sun]])</f>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C20" s="13">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E20" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G20" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H20" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I20" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J20" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E20" s="13">
+        <v>6</v>
+      </c>
+      <c r="K20" s="26">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F20" s="13">
-        <f t="shared" si="3"/>
         <v>5</v>
-      </c>
-      <c r="G20" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H20" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I20" s="13">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J20" s="26">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="K20" s="26">
-        <f t="shared" si="8"/>
-        <v>13</v>
       </c>
       <c r="L20" s="13">
         <f>SUM(INDEX($R$1:$BH$32,MATCH($A20,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A20,$R$1:$R$32,0),8))</f>
@@ -4908,43 +4908,43 @@
       </c>
       <c r="B21" s="22">
         <f>SUM(Table1[[#This Row],[Mon]:[Sun]])</f>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C21" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E21" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G21" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I21" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J21" s="26">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="E21" s="13">
+        <v>3</v>
+      </c>
+      <c r="K21" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="13">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="G21" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H21" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I21" s="13">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="J21" s="26">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="K21" s="26">
-        <f t="shared" si="8"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="L21" s="13">
         <f>SUM(INDEX($R$1:$BH$32,MATCH($A21,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A21,$R$1:$R$32,0),8))</f>
@@ -5107,43 +5107,43 @@
       </c>
       <c r="B22" s="22">
         <f>SUM(Table1[[#This Row],[Mon]:[Sun]])</f>
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C22" s="13">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E22" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G22" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I22" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J22" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E22" s="13">
+        <v>1</v>
+      </c>
+      <c r="K22" s="26">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F22" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="G22" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H22" s="13">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I22" s="13">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="J22" s="26">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="K22" s="26">
-        <f t="shared" si="8"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="L22" s="13">
         <f>SUM(INDEX($R$1:$BH$32,MATCH($A22,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A22,$R$1:$R$32,0),8))</f>
@@ -5306,43 +5306,43 @@
       </c>
       <c r="B23" s="22">
         <f>SUM(Table1[[#This Row],[Mon]:[Sun]])</f>
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C23" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E23" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G23" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H23" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I23" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J23" s="26">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E23" s="13">
+      <c r="K23" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="13">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G23" s="13">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="H23" s="13">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I23" s="13">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="J23" s="26">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="K23" s="26">
-        <f t="shared" si="8"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="L23" s="13">
         <f>SUM(INDEX($R$1:$BH$32,MATCH($A23,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A23,$R$1:$R$32,0),8))</f>
@@ -5505,43 +5505,43 @@
       </c>
       <c r="B24" s="22">
         <f>SUM(Table1[[#This Row],[Mon]:[Sun]])</f>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C24" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D24" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E24" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G24" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I24" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J24" s="26">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E24" s="13">
+      <c r="K24" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="13">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="G24" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="13">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="I24" s="13">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J24" s="26">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="K24" s="26">
-        <f t="shared" si="8"/>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="L24" s="13">
         <f>SUM(INDEX($R$1:$BH$32,MATCH($A24,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A24,$R$1:$R$32,0),8))</f>
@@ -5704,43 +5704,43 @@
       </c>
       <c r="B25" s="22">
         <f>SUM(Table1[[#This Row],[Mon]:[Sun]])</f>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C25" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D25" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E25" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G25" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H25" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I25" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J25" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E25" s="13">
+        <v>6</v>
+      </c>
+      <c r="K25" s="26">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F25" s="13">
-        <f t="shared" si="3"/>
         <v>5</v>
-      </c>
-      <c r="G25" s="13">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="H25" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I25" s="13">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J25" s="26">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="K25" s="26">
-        <f t="shared" si="8"/>
-        <v>12</v>
       </c>
       <c r="L25" s="13">
         <f>SUM(INDEX($R$1:$BH$32,MATCH($A25,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A25,$R$1:$R$32,0),8))</f>
@@ -5903,43 +5903,43 @@
       </c>
       <c r="B26" s="22">
         <f>SUM(Table1[[#This Row],[Mon]:[Sun]])</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C26" s="13">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E26" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H26" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I26" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J26" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E26" s="13">
+        <v>6</v>
+      </c>
+      <c r="K26" s="26">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F26" s="13">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="G26" s="13">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="H26" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I26" s="13">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="J26" s="26">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="K26" s="26">
-        <f t="shared" si="8"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L26" s="13">
         <f>SUM(INDEX($R$1:$BH$32,MATCH($A26,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A26,$R$1:$R$32,0),8))</f>
@@ -6102,43 +6102,43 @@
       </c>
       <c r="B27" s="22">
         <f>SUM(Table1[[#This Row],[Mon]:[Sun]])</f>
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C27" s="13">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D27" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E27" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G27" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I27" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J27" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E27" s="13">
+        <v>1</v>
+      </c>
+      <c r="K27" s="26">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F27" s="13">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="G27" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="13">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="I27" s="13">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="J27" s="26">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="K27" s="26">
-        <f t="shared" si="8"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="L27" s="13">
         <f>SUM(INDEX($R$1:$BH$32,MATCH($A27,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A27,$R$1:$R$32,0),8))</f>
@@ -6301,43 +6301,43 @@
       </c>
       <c r="B28" s="22">
         <f>SUM(Table1[[#This Row],[Mon]:[Sun]])</f>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C28" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D28" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E28" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G28" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I28" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J28" s="26">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E28" s="13">
+      <c r="K28" s="26">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F28" s="13">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G28" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="13">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I28" s="13">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="J28" s="26">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="K28" s="26">
-        <f t="shared" si="8"/>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="L28" s="13">
         <f>SUM(INDEX($R$1:$BH$32,MATCH($A28,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A28,$R$1:$R$32,0),8))</f>
@@ -6500,43 +6500,43 @@
       </c>
       <c r="B29" s="22">
         <f>SUM(Table1[[#This Row],[Mon]:[Sun]])</f>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C29" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D29" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F29" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G29" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H29" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J29" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E29" s="13">
+        <v>9</v>
+      </c>
+      <c r="K29" s="26">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F29" s="13">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="G29" s="13">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="H29" s="13">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="I29" s="13">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="J29" s="26">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="K29" s="26">
-        <f t="shared" si="8"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L29" s="13">
         <f>SUM(INDEX($R$1:$BH$32,MATCH($A29,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A29,$R$1:$R$32,0),8))</f>
@@ -6699,43 +6699,43 @@
       </c>
       <c r="B30" s="22">
         <f>SUM(Table1[[#This Row],[Mon]:[Sun]])</f>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C30" s="13">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E30" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G30" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H30" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I30" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J30" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E30" s="13">
+        <v>4</v>
+      </c>
+      <c r="K30" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="13">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G30" s="13">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="H30" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I30" s="13">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J30" s="26">
-        <f t="shared" si="7"/>
         <v>7</v>
-      </c>
-      <c r="K30" s="26">
-        <f t="shared" si="8"/>
-        <v>14</v>
       </c>
       <c r="L30" s="13">
         <f>SUM(INDEX($R$1:$BH$32,MATCH($A30,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A30,$R$1:$R$32,0),8))</f>
@@ -6898,43 +6898,43 @@
       </c>
       <c r="B31" s="22">
         <f>SUM(Table1[[#This Row],[Mon]:[Sun]])</f>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C31" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D31" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E31" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F31" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G31" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H31" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I31" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J31" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E31" s="13">
+        <v>6</v>
+      </c>
+      <c r="K31" s="26">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F31" s="13">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G31" s="13">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="H31" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I31" s="13">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J31" s="26">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="K31" s="26">
-        <f t="shared" si="8"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L31" s="13">
         <f>SUM(INDEX($R$1:$BH$32,MATCH($A31,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A31,$R$1:$R$32,0),8))</f>
@@ -7097,43 +7097,43 @@
       </c>
       <c r="B32" s="22">
         <f>SUM(Table1[[#This Row],[Mon]:[Sun]])</f>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C32" s="13">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E32" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G32" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H32" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I32" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J32" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E32" s="13">
+        <v>4</v>
+      </c>
+      <c r="K32" s="26">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F32" s="13">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G32" s="13">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="H32" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I32" s="13">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="J32" s="26">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="K32" s="26">
-        <f t="shared" si="8"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L32" s="13">
         <f>SUM(INDEX($R$1:$BH$32,MATCH($A32,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A32,$R$1:$R$32,0),8))</f>
@@ -7296,43 +7296,43 @@
       </c>
       <c r="B33" s="22">
         <f>SUM(Table1[[#This Row],[Mon]:[Sun]])</f>
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C33" s="13">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E33" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F33" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G33" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I33" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E33" s="13">
+        <v>2</v>
+      </c>
+      <c r="K33" s="26">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F33" s="13">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="G33" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H33" s="13">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I33" s="13">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J33" s="26">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="K33" s="26">
-        <f t="shared" si="8"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L33" s="13">
         <f>SUM(INDEX($R$1:$BH$32,MATCH($A33,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A33,$R$1:$R$32,0),8))</f>
@@ -7359,171 +7359,171 @@
         <v>5</v>
       </c>
       <c r="S33">
-        <f t="shared" ref="S33:AF33" si="9">SUM(S3:S32)</f>
+        <f t="shared" ref="S33:AF33" si="3">SUM(S3:S32)</f>
         <v>6</v>
       </c>
       <c r="T33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="U33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="V33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="W33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="X33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="AB33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="AC33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="AD33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AE33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="AF33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AG33">
-        <f t="shared" ref="AG33:BH33" si="10">SUM(AG3:AG32)</f>
+        <f t="shared" ref="AG33:BH33" si="4">SUM(AG3:AG32)</f>
         <v>16</v>
       </c>
       <c r="AH33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="AI33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="AJ33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="AK33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="AL33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AM33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="AN33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="AO33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="AP33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AQ33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="AR33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="AS33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="AT33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="AU33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="AV33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AW33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="AX33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="AY33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="AZ33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="BA33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="BB33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="BC33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="BD33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="BE33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="BF33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="BG33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="BH33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
     </row>
@@ -7533,43 +7533,43 @@
       </c>
       <c r="B34" s="22">
         <f>SUM(Table1[[#This Row],[Mon]:[Sun]])</f>
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C34" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D34" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E34" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G34" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H34" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I34" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J34" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E34" s="13">
+        <v>4</v>
+      </c>
+      <c r="K34" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="13">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G34" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H34" s="13">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I34" s="13">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="J34" s="26">
-        <f t="shared" si="7"/>
         <v>6</v>
-      </c>
-      <c r="K34" s="26">
-        <f t="shared" si="8"/>
-        <v>15</v>
       </c>
       <c r="L34" s="13">
         <f>SUM(INDEX($R$1:$BH$32,MATCH($A34,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A34,$R$1:$R$32,0),8))</f>
@@ -7602,43 +7602,43 @@
       </c>
       <c r="B35" s="22">
         <f>SUM(Table1[[#This Row],[Mon]:[Sun]])</f>
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C35" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E35" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F35" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G35" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H35" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I35" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J35" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E35" s="13">
+        <v>3</v>
+      </c>
+      <c r="K35" s="26">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F35" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="G35" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H35" s="13">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I35" s="13">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J35" s="26">
-        <f t="shared" si="7"/>
         <v>7</v>
-      </c>
-      <c r="K35" s="26">
-        <f t="shared" si="8"/>
-        <v>14</v>
       </c>
       <c r="L35" s="13">
         <f>SUM(INDEX($R$1:$BH$32,MATCH($A35,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A35,$R$1:$R$32,0),8))</f>
@@ -7671,43 +7671,43 @@
       </c>
       <c r="B36" s="22">
         <f>SUM(Table1[[#This Row],[Mon]:[Sun]])</f>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C36" s="13">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E36" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G36" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H36" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I36" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J36" s="26">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E36" s="13">
+      <c r="K36" s="26">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F36" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="G36" s="13">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="H36" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I36" s="13">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="J36" s="26">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="K36" s="26">
-        <f t="shared" si="8"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L36" s="13">
         <f>SUM(INDEX($R$1:$BH$32,MATCH($A36,$R$1:$R$32,0),2):INDEX($R$1:$BH$32,MATCH($A36,$R$1:$R$32,0),8))</f>
@@ -7740,43 +7740,43 @@
       </c>
       <c r="B37" s="15">
         <f>SUBTOTAL(109,Table1[GP])</f>
-        <v>626</v>
+        <v>322</v>
       </c>
       <c r="C37" s="15">
         <f>SUBTOTAL(109,Table1[Mon])</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D37" s="15">
         <f>SUBTOTAL(109,Table1[Tue])</f>
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="E37" s="15">
         <f>SUBTOTAL(109,Table1[Wed])</f>
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F37" s="15">
         <f>SUBTOTAL(109,Table1[Thu])</f>
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="G37" s="15">
         <f>SUBTOTAL(109,Table1[Fri])</f>
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H37" s="15">
         <f>SUBTOTAL(109,Table1[Sat])</f>
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="I37" s="15">
         <f>SUBTOTAL(109,Table1[Sun])</f>
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="J37" s="26">
         <f>SUBTOTAL(109,Table1[Off Days])</f>
-        <v>238</v>
+        <v>136</v>
       </c>
       <c r="K37" s="26">
         <f>SUBTOTAL(109,Table1[Pop Days])</f>
-        <v>388</v>
+        <v>186</v>
       </c>
       <c r="L37" s="15">
         <f>SUBTOTAL(109,Table1[Week 1])</f>
@@ -7852,44 +7852,44 @@
         <v>84</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:L54" si="11">IF(ISBLANK($B40),0,VLOOKUP( $B40, $A$7:$L$36,(COLUMN()-1),FALSE))</f>
-        <v>1</v>
+        <f t="shared" ref="D40:L54" si="5">IF(ISBLANK($B40),0,VLOOKUP( $B40, $A$7:$L$36,(COLUMN()-1),FALSE))</f>
+        <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="F40">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="G40">
-        <f t="shared" si="11"/>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="H40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I40">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="J40">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="K40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="5"/>
         <v>7</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="11"/>
-        <v>14</v>
       </c>
       <c r="M40">
         <f>Table2[[#This Row],[Off Days]]+Table2[[#This Row],[Pop Days]]</f>
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:60" x14ac:dyDescent="0.3">
@@ -7903,44 +7903,44 @@
         <v>84</v>
       </c>
       <c r="D41">
-        <f t="shared" ref="D41:L46" si="12">IF(ISBLANK($B41),0,VLOOKUP( $B41, $A$7:$L$36,(COLUMN()-1),FALSE))</f>
-        <v>2</v>
+        <f t="shared" ref="D41:L46" si="6">IF(ISBLANK($B41),0,VLOOKUP( $B41, $A$7:$L$36,(COLUMN()-1),FALSE))</f>
+        <v>0</v>
       </c>
       <c r="E41">
-        <f t="shared" si="12"/>
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="F41">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="G41">
-        <f t="shared" si="12"/>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="H41">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I41">
-        <f t="shared" si="12"/>
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="J41">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="K41">
-        <f t="shared" si="12"/>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="L41">
-        <f t="shared" si="12"/>
-        <v>14</v>
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
       <c r="M41">
         <f>Table2[[#This Row],[Off Days]]+Table2[[#This Row],[Pop Days]]</f>
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:60" x14ac:dyDescent="0.3">
@@ -7954,44 +7954,44 @@
         <v>84</v>
       </c>
       <c r="D42">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="E42">
-        <f t="shared" si="12"/>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="F42">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G42">
-        <f t="shared" si="12"/>
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="H42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I42">
-        <f t="shared" si="12"/>
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="J42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K42">
-        <f t="shared" si="12"/>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="L42">
-        <f t="shared" si="12"/>
-        <v>14</v>
+        <f t="shared" si="6"/>
+        <v>7</v>
       </c>
       <c r="M42">
         <f>Table2[[#This Row],[Off Days]]+Table2[[#This Row],[Pop Days]]</f>
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:60" x14ac:dyDescent="0.3">
@@ -8005,44 +8005,44 @@
         <v>84</v>
       </c>
       <c r="D43">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="E43">
-        <f t="shared" si="12"/>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="F43">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G43">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="H43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I43">
-        <f t="shared" si="12"/>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="J43">
-        <f t="shared" si="12"/>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="K43">
-        <f t="shared" si="12"/>
-        <v>10</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="L43">
-        <f t="shared" si="12"/>
-        <v>10</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="M43">
         <f>Table2[[#This Row],[Off Days]]+Table2[[#This Row],[Pop Days]]</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
@@ -8059,44 +8059,44 @@
         <v>84</v>
       </c>
       <c r="D44">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E44">
-        <f t="shared" si="12"/>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="F44">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="G44">
-        <f t="shared" si="12"/>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="H44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I44">
-        <f t="shared" si="12"/>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="J44">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="K44">
-        <f t="shared" si="12"/>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="L44">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="M44">
         <f>Table2[[#This Row],[Off Days]]+Table2[[#This Row],[Pop Days]]</f>
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:60" x14ac:dyDescent="0.3">
@@ -8110,44 +8110,44 @@
         <v>84</v>
       </c>
       <c r="D45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E45">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="G45">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H45">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="I45">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="J45">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="K45">
-        <f t="shared" si="12"/>
-        <v>10</v>
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
       <c r="L45">
-        <f t="shared" si="12"/>
-        <v>9</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="M45">
         <f>Table2[[#This Row],[Off Days]]+Table2[[#This Row],[Pop Days]]</f>
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:60" x14ac:dyDescent="0.3">
@@ -8156,39 +8156,39 @@
         <v>84</v>
       </c>
       <c r="D46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M46">
@@ -8204,43 +8204,43 @@
       <c r="C47" s="13"/>
       <c r="D47" s="15">
         <f>SUM(D40:D46)</f>
+        <v>5</v>
+      </c>
+      <c r="E47" s="15">
+        <f t="shared" ref="E47:M47" si="7">SUM(E40:E46)</f>
+        <v>14</v>
+      </c>
+      <c r="F47" s="15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="G47" s="15">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="H47" s="15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="I47" s="15">
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="E47" s="15">
-        <f t="shared" ref="E47:M47" si="13">SUM(E40:E46)</f>
-        <v>25</v>
-      </c>
-      <c r="F47" s="15">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="G47" s="15">
-        <f t="shared" si="13"/>
-        <v>24</v>
-      </c>
-      <c r="H47" s="15">
-        <f t="shared" si="13"/>
-        <v>7</v>
-      </c>
-      <c r="I47" s="15">
-        <f t="shared" si="13"/>
-        <v>28</v>
-      </c>
       <c r="J47" s="15">
-        <f t="shared" si="13"/>
-        <v>15</v>
+        <f t="shared" si="7"/>
+        <v>8</v>
       </c>
       <c r="K47" s="15">
-        <f t="shared" si="13"/>
-        <v>45</v>
+        <f t="shared" si="7"/>
+        <v>23</v>
       </c>
       <c r="L47" s="15">
-        <f t="shared" si="13"/>
-        <v>77</v>
+        <f t="shared" si="7"/>
+        <v>38</v>
       </c>
       <c r="M47" s="15">
-        <f t="shared" si="13"/>
-        <v>122</v>
+        <f t="shared" si="7"/>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:60" x14ac:dyDescent="0.3">
@@ -8254,44 +8254,44 @@
         <v>85</v>
       </c>
       <c r="D48">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="E48">
-        <f t="shared" si="11"/>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="F48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G48">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="H48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="I48">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="J48">
-        <f t="shared" si="11"/>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="K48">
-        <f t="shared" si="11"/>
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="L48">
-        <f t="shared" si="11"/>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="M48">
         <f>Table2[[#This Row],[Off Days]]+Table2[[#This Row],[Pop Days]]</f>
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
@@ -8305,44 +8305,44 @@
         <v>85</v>
       </c>
       <c r="D49">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="E49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="F49">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="11"/>
-        <v>11</v>
-      </c>
       <c r="L49">
-        <f t="shared" si="11"/>
-        <v>11</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="M49">
         <f>Table2[[#This Row],[Off Days]]+Table2[[#This Row],[Pop Days]]</f>
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
@@ -8356,44 +8356,44 @@
         <v>85</v>
       </c>
       <c r="D50">
-        <f t="shared" ref="D50:L51" si="14">IF(ISBLANK($B50),0,VLOOKUP( $B50, $A$7:$L$36,(COLUMN()-1),FALSE))</f>
+        <f t="shared" ref="D50:L51" si="8">IF(ISBLANK($B50),0,VLOOKUP( $B50, $A$7:$L$36,(COLUMN()-1),FALSE))</f>
         <v>1</v>
       </c>
       <c r="E50">
-        <f t="shared" si="14"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="F50">
-        <f t="shared" si="14"/>
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="G50">
-        <f t="shared" si="14"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="H50">
-        <f t="shared" si="14"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="I50">
-        <f t="shared" si="14"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="J50">
-        <f t="shared" si="14"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="K50">
-        <f t="shared" si="14"/>
-        <v>15</v>
+        <f t="shared" si="8"/>
+        <v>9</v>
       </c>
       <c r="L50">
-        <f t="shared" si="14"/>
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="M50">
         <f>Table2[[#This Row],[Off Days]]+Table2[[#This Row],[Pop Days]]</f>
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
@@ -8407,44 +8407,44 @@
         <v>85</v>
       </c>
       <c r="D51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="F51">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
       <c r="L51">
-        <f t="shared" si="14"/>
-        <v>15</v>
+        <f t="shared" si="8"/>
+        <v>7</v>
       </c>
       <c r="M51">
         <f>Table2[[#This Row],[Off Days]]+Table2[[#This Row],[Pop Days]]</f>
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
@@ -8453,39 +8453,39 @@
         <v>85</v>
       </c>
       <c r="D52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M52" s="6">
@@ -8499,39 +8499,39 @@
         <v>85</v>
       </c>
       <c r="D53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M53" s="6">
@@ -8545,39 +8545,39 @@
         <v>85</v>
       </c>
       <c r="D54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M54">
@@ -8593,43 +8593,43 @@
       <c r="C55" s="16"/>
       <c r="D55" s="18">
         <f>SUM(D48:D54)</f>
+        <v>4</v>
+      </c>
+      <c r="E55" s="18">
+        <f t="shared" ref="E55:M55" si="9">SUM(E48:E54)</f>
+        <v>7</v>
+      </c>
+      <c r="F55" s="18">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="G55" s="18">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="H55" s="18">
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="E55" s="18">
-        <f t="shared" ref="E55:M55" si="15">SUM(E48:E54)</f>
-        <v>17</v>
-      </c>
-      <c r="F55" s="18">
-        <f t="shared" si="15"/>
-        <v>7</v>
-      </c>
-      <c r="G55" s="18">
-        <f t="shared" si="15"/>
-        <v>14</v>
-      </c>
-      <c r="H55" s="18">
-        <f t="shared" si="15"/>
-        <v>10</v>
-      </c>
       <c r="I55" s="18">
-        <f t="shared" si="15"/>
-        <v>16</v>
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
       <c r="J55" s="18">
-        <f t="shared" si="15"/>
-        <v>16</v>
+        <f t="shared" si="9"/>
+        <v>9</v>
       </c>
       <c r="K55" s="18">
-        <f t="shared" si="15"/>
-        <v>39</v>
+        <f t="shared" si="9"/>
+        <v>23</v>
       </c>
       <c r="L55" s="18">
-        <f t="shared" si="15"/>
-        <v>47</v>
+        <f t="shared" si="9"/>
+        <v>21</v>
       </c>
       <c r="M55" s="18">
-        <f t="shared" si="15"/>
-        <v>86</v>
+        <f t="shared" si="9"/>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -8643,44 +8643,44 @@
         <v>86</v>
       </c>
       <c r="D56" s="3">
-        <f t="shared" ref="D56:L56" si="16">IF(ISBLANK($B56),0,VLOOKUP( $B56, $A$7:$L$36,(COLUMN()-1),FALSE))</f>
-        <v>2</v>
+        <f t="shared" ref="D56:L56" si="10">IF(ISBLANK($B56),0,VLOOKUP( $B56, $A$7:$L$36,(COLUMN()-1),FALSE))</f>
+        <v>1</v>
       </c>
       <c r="E56" s="3">
-        <f t="shared" si="16"/>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="F56" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="G56" s="3">
-        <f t="shared" si="16"/>
-        <v>6</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="H56" s="3">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="I56" s="3">
-        <f t="shared" si="16"/>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="J56" s="3">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K56" s="3">
-        <f t="shared" si="16"/>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="L56" s="3">
-        <f t="shared" si="16"/>
-        <v>16</v>
+        <f t="shared" si="10"/>
+        <v>8</v>
       </c>
       <c r="M56" s="20">
         <f>Table2[[#This Row],[Off Days]]+Table2[[#This Row],[Pop Days]]</f>
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -8698,40 +8698,40 @@
         <v>1</v>
       </c>
       <c r="E57" s="3">
-        <f t="shared" ref="E57:L58" si="17">IF(ISBLANK($B57),0,VLOOKUP( $B57, $A$7:$L$36,(COLUMN()-1),FALSE))</f>
-        <v>4</v>
+        <f t="shared" ref="E57:L58" si="11">IF(ISBLANK($B57),0,VLOOKUP( $B57, $A$7:$L$36,(COLUMN()-1),FALSE))</f>
+        <v>1</v>
       </c>
       <c r="F57" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="H57" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I57" s="3">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="J57" s="3">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="K57" s="3">
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="H57" s="3">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="I57" s="3">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="J57" s="3">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="K57" s="3">
-        <f t="shared" si="17"/>
-        <v>8</v>
-      </c>
       <c r="L57" s="3">
-        <f t="shared" si="17"/>
-        <v>14</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
       <c r="M57" s="20">
         <f>Table2[[#This Row],[Off Days]]+Table2[[#This Row],[Pop Days]]</f>
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -8749,40 +8749,40 @@
         <v>1</v>
       </c>
       <c r="E58" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F58" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="J58" s="3">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="F58" s="3">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="G58" s="3">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="H58" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="J58" s="3">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="K58" s="3">
-        <f t="shared" si="17"/>
-        <v>6</v>
-      </c>
       <c r="L58" s="3">
-        <f t="shared" si="17"/>
-        <v>15</v>
+        <f t="shared" si="11"/>
+        <v>7</v>
       </c>
       <c r="M58" s="20">
         <f>Table2[[#This Row],[Off Days]]+Table2[[#This Row],[Pop Days]]</f>
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -8796,44 +8796,44 @@
         <v>86</v>
       </c>
       <c r="D59" s="3">
-        <f t="shared" ref="D59:L74" si="18">IF(ISBLANK($B59),0,VLOOKUP( $B59, $A$7:$L$36,(COLUMN()-1),FALSE))</f>
+        <f t="shared" ref="D59:L74" si="12">IF(ISBLANK($B59),0,VLOOKUP( $B59, $A$7:$L$36,(COLUMN()-1),FALSE))</f>
         <v>1</v>
       </c>
       <c r="E59" s="3">
-        <f t="shared" si="18"/>
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="F59" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G59" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="H59" s="3">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="I59" s="3">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="J59" s="3">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="K59" s="3">
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="H59" s="3">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="I59" s="3">
-        <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="J59" s="3">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
-        <f t="shared" si="18"/>
-        <v>8</v>
-      </c>
       <c r="L59" s="3">
-        <f t="shared" si="18"/>
-        <v>14</v>
+        <f t="shared" si="12"/>
+        <v>6</v>
       </c>
       <c r="M59" s="20">
         <f>Table2[[#This Row],[Off Days]]+Table2[[#This Row],[Pop Days]]</f>
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -8842,39 +8842,39 @@
         <v>86</v>
       </c>
       <c r="D60" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E60" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F60" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G60" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H60" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I60" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J60" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K60" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L60" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M60" s="20">
@@ -8888,39 +8888,39 @@
         <v>86</v>
       </c>
       <c r="D61" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M61" s="20">
@@ -8934,39 +8934,39 @@
         <v>86</v>
       </c>
       <c r="D62" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H62" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I62" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J62" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L62" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M62" s="20">
@@ -8982,43 +8982,43 @@
       <c r="C63" s="13"/>
       <c r="D63" s="15">
         <f>SUM(D56:D62)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E63" s="15">
-        <f t="shared" ref="E63:M63" si="19">SUM(E56:E62)</f>
-        <v>18</v>
+        <f t="shared" ref="E63:M63" si="13">SUM(E56:E62)</f>
+        <v>6</v>
       </c>
       <c r="F63" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="G63" s="15">
-        <f t="shared" si="19"/>
-        <v>21</v>
+        <f t="shared" si="13"/>
+        <v>12</v>
       </c>
       <c r="H63" s="15">
-        <f t="shared" si="19"/>
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
       </c>
       <c r="I63" s="15">
-        <f t="shared" si="19"/>
-        <v>20</v>
+        <f t="shared" si="13"/>
+        <v>9</v>
       </c>
       <c r="J63" s="15">
-        <f t="shared" si="19"/>
-        <v>13</v>
+        <f t="shared" si="13"/>
+        <v>7</v>
       </c>
       <c r="K63" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="L63" s="15">
+        <f t="shared" si="13"/>
         <v>27</v>
       </c>
-      <c r="L63" s="15">
-        <f t="shared" si="19"/>
-        <v>59</v>
-      </c>
       <c r="M63" s="15">
-        <f t="shared" si="19"/>
-        <v>86</v>
+        <f t="shared" si="13"/>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
@@ -9029,43 +9029,43 @@
       <c r="C64" s="8"/>
       <c r="D64" s="8">
         <f>SUM(D47+D55+D63)</f>
+        <v>13</v>
+      </c>
+      <c r="E64" s="8">
+        <f t="shared" ref="E64:M64" si="14">SUM(E47+E55+E63)</f>
+        <v>27</v>
+      </c>
+      <c r="F64" s="8">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="G64" s="8">
+        <f t="shared" si="14"/>
+        <v>31</v>
+      </c>
+      <c r="H64" s="8">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="I64" s="8">
+        <f t="shared" si="14"/>
+        <v>28</v>
+      </c>
+      <c r="J64" s="8">
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
-      <c r="E64" s="8">
-        <f t="shared" ref="E64:M64" si="20">SUM(E47+E55+E63)</f>
-        <v>60</v>
-      </c>
-      <c r="F64" s="8">
-        <f t="shared" si="20"/>
-        <v>21</v>
-      </c>
-      <c r="G64" s="8">
-        <f t="shared" si="20"/>
-        <v>59</v>
-      </c>
-      <c r="H64" s="8">
-        <f t="shared" si="20"/>
-        <v>22</v>
-      </c>
-      <c r="I64" s="8">
-        <f t="shared" si="20"/>
-        <v>64</v>
-      </c>
-      <c r="J64" s="8">
-        <f t="shared" si="20"/>
-        <v>44</v>
-      </c>
       <c r="K64" s="8">
-        <f t="shared" si="20"/>
-        <v>111</v>
+        <f t="shared" si="14"/>
+        <v>63</v>
       </c>
       <c r="L64" s="8">
-        <f t="shared" si="20"/>
-        <v>183</v>
+        <f t="shared" si="14"/>
+        <v>86</v>
       </c>
       <c r="M64" s="8">
-        <f t="shared" si="20"/>
-        <v>294</v>
+        <f t="shared" si="14"/>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
@@ -9079,44 +9079,44 @@
         <v>61</v>
       </c>
       <c r="D65">
-        <f t="shared" si="18"/>
-        <v>3</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="E65">
-        <f t="shared" si="18"/>
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>3</v>
       </c>
       <c r="F65">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="G65">
-        <f t="shared" si="18"/>
-        <v>6</v>
+        <f t="shared" si="12"/>
+        <v>3</v>
       </c>
       <c r="H65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I65">
-        <f t="shared" si="18"/>
-        <v>6</v>
+        <f t="shared" si="12"/>
+        <v>3</v>
       </c>
       <c r="J65">
-        <f t="shared" si="18"/>
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="K65">
-        <f t="shared" si="18"/>
-        <v>6</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="L65">
-        <f t="shared" si="18"/>
-        <v>16</v>
+        <f t="shared" si="12"/>
+        <v>9</v>
       </c>
       <c r="M65">
         <f>Table2[[#This Row],[Off Days]]+Table2[[#This Row],[Pop Days]]</f>
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
@@ -9130,44 +9130,44 @@
         <v>61</v>
       </c>
       <c r="D66">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="E66">
-        <f t="shared" si="18"/>
-        <v>5</v>
+        <f t="shared" si="12"/>
+        <v>3</v>
       </c>
       <c r="F66">
-        <f t="shared" si="18"/>
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="G66">
-        <f t="shared" si="18"/>
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="H66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="I66">
-        <f t="shared" si="18"/>
-        <v>5</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="J66">
-        <f t="shared" si="18"/>
-        <v>3</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="K66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="12"/>
         <v>7</v>
-      </c>
-      <c r="L66">
-        <f t="shared" si="18"/>
-        <v>14</v>
       </c>
       <c r="M66">
         <f>Table2[[#This Row],[Off Days]]+Table2[[#This Row],[Pop Days]]</f>
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
@@ -9181,44 +9181,44 @@
         <v>61</v>
       </c>
       <c r="D67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E67">
-        <f t="shared" si="18"/>
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="F67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="G67">
-        <f t="shared" si="18"/>
-        <v>3</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="H67">
-        <f t="shared" si="18"/>
-        <v>3</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="I67">
-        <f t="shared" si="18"/>
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="J67">
-        <f t="shared" si="18"/>
-        <v>3</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="K67">
-        <f t="shared" si="18"/>
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>6</v>
       </c>
       <c r="L67">
-        <f t="shared" si="18"/>
-        <v>11</v>
+        <f t="shared" si="12"/>
+        <v>5</v>
       </c>
       <c r="M67">
         <f>Table2[[#This Row],[Off Days]]+Table2[[#This Row],[Pop Days]]</f>
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
@@ -9232,44 +9232,44 @@
         <v>61</v>
       </c>
       <c r="D68">
-        <f t="shared" si="18"/>
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="E68">
-        <f t="shared" si="18"/>
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="F68">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="G68">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="H68">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="I68">
-        <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
-      <c r="J68">
-        <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
-      <c r="K68">
-        <f t="shared" si="18"/>
-        <v>8</v>
-      </c>
       <c r="L68">
-        <f t="shared" si="18"/>
-        <v>12</v>
+        <f t="shared" si="12"/>
+        <v>6</v>
       </c>
       <c r="M68">
         <f>Table2[[#This Row],[Off Days]]+Table2[[#This Row],[Pop Days]]</f>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
@@ -9286,44 +9286,44 @@
         <v>61</v>
       </c>
       <c r="D69">
-        <f t="shared" si="18"/>
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="E69">
-        <f t="shared" si="18"/>
-        <v>5</v>
+        <f t="shared" si="12"/>
+        <v>3</v>
       </c>
       <c r="F69">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="G69">
-        <f t="shared" si="18"/>
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="H69">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I69">
-        <f t="shared" si="18"/>
-        <v>5</v>
+        <f t="shared" si="12"/>
+        <v>3</v>
       </c>
       <c r="J69">
-        <f t="shared" si="18"/>
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="K69">
-        <f t="shared" si="18"/>
-        <v>6</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="L69">
-        <f t="shared" si="18"/>
-        <v>14</v>
+        <f t="shared" si="12"/>
+        <v>8</v>
       </c>
       <c r="M69">
         <f>Table2[[#This Row],[Off Days]]+Table2[[#This Row],[Pop Days]]</f>
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
@@ -9332,39 +9332,39 @@
         <v>61</v>
       </c>
       <c r="D70">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E70">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F70">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G70">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H70">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I70">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J70">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K70">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L70">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M70" s="6">
@@ -9378,39 +9378,39 @@
         <v>61</v>
       </c>
       <c r="D71">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E71">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F71">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G71">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H71">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I71">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J71">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K71">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L71">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M71" s="6">
@@ -9427,39 +9427,39 @@
         <v>61</v>
       </c>
       <c r="D72">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E72">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F72">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G72">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H72">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I72">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J72">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K72">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L72">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M72" s="6">
@@ -9473,39 +9473,39 @@
         <v>61</v>
       </c>
       <c r="D73">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E73">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F73">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G73">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H73">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I73">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J73">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K73">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L73">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M73" s="6">
@@ -9519,39 +9519,39 @@
         <v>61</v>
       </c>
       <c r="D74">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E74">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F74">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G74">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H74">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I74">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J74">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K74">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L74">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M74" s="6">
@@ -9566,44 +9566,44 @@
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8">
-        <f t="shared" ref="D75:L75" si="21">SUM(D65:D69)</f>
-        <v>10</v>
+        <f t="shared" ref="D75:L75" si="15">SUM(D65:D69)</f>
+        <v>3</v>
       </c>
       <c r="E75" s="8">
-        <f t="shared" si="21"/>
-        <v>22</v>
+        <f t="shared" si="15"/>
+        <v>12</v>
       </c>
       <c r="F75" s="8">
-        <f t="shared" si="21"/>
-        <v>7</v>
+        <f t="shared" si="15"/>
+        <v>3</v>
       </c>
       <c r="G75" s="8">
-        <f t="shared" si="21"/>
-        <v>22</v>
+        <f t="shared" si="15"/>
+        <v>12</v>
       </c>
       <c r="H75" s="8">
-        <f t="shared" si="21"/>
-        <v>7</v>
+        <f t="shared" si="15"/>
+        <v>4</v>
       </c>
       <c r="I75" s="8">
-        <f t="shared" si="21"/>
-        <v>23</v>
+        <f t="shared" si="15"/>
+        <v>11</v>
       </c>
       <c r="J75" s="8">
-        <f t="shared" si="21"/>
-        <v>13</v>
+        <f t="shared" si="15"/>
+        <v>6</v>
       </c>
       <c r="K75" s="8">
-        <f t="shared" si="21"/>
-        <v>37</v>
+        <f t="shared" si="15"/>
+        <v>16</v>
       </c>
       <c r="L75" s="8">
-        <f t="shared" si="21"/>
-        <v>67</v>
+        <f t="shared" si="15"/>
+        <v>35</v>
       </c>
       <c r="M75" s="8">
         <f>Table2[[#This Row],[Off Days]]+Table2[[#This Row],[Pop Days]]</f>
-        <v>104</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
@@ -9617,44 +9617,44 @@
         <v>68</v>
       </c>
       <c r="D76">
-        <f t="shared" ref="D76:L80" si="22">IF(ISBLANK($B76),0,VLOOKUP( $B76, $A$7:$L$36,(COLUMN()-1),FALSE))</f>
+        <f t="shared" ref="D76:L80" si="16">IF(ISBLANK($B76),0,VLOOKUP( $B76, $A$7:$L$36,(COLUMN()-1),FALSE))</f>
         <v>2</v>
       </c>
       <c r="E76">
-        <f t="shared" si="22"/>
-        <v>6</v>
+        <f t="shared" si="16"/>
+        <v>3</v>
       </c>
       <c r="F76">
-        <f t="shared" si="22"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="G76">
-        <f t="shared" si="22"/>
-        <v>5</v>
+        <f t="shared" si="16"/>
+        <v>3</v>
       </c>
       <c r="H76">
-        <f t="shared" si="22"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="I76">
-        <f t="shared" si="22"/>
-        <v>5</v>
+        <f t="shared" si="16"/>
+        <v>3</v>
       </c>
       <c r="J76">
-        <f t="shared" si="22"/>
-        <v>4</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="K76">
-        <f t="shared" si="22"/>
-        <v>8</v>
+        <f t="shared" si="16"/>
+        <v>4</v>
       </c>
       <c r="L76">
-        <f t="shared" si="22"/>
-        <v>16</v>
+        <f t="shared" si="16"/>
+        <v>9</v>
       </c>
       <c r="M76">
         <f>Table2[[#This Row],[Off Days]]+Table2[[#This Row],[Pop Days]]</f>
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
@@ -9668,44 +9668,44 @@
         <v>68</v>
       </c>
       <c r="D77">
-        <f t="shared" si="22"/>
-        <v>3</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="E77">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="16"/>
         <v>5</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-      <c r="H77">
-        <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-      <c r="I77">
-        <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="J77">
-        <f t="shared" si="22"/>
-        <v>3</v>
-      </c>
-      <c r="K77">
-        <f t="shared" si="22"/>
-        <v>9</v>
-      </c>
-      <c r="L77">
-        <f t="shared" si="22"/>
-        <v>11</v>
       </c>
       <c r="M77">
         <f>Table2[[#This Row],[Off Days]]+Table2[[#This Row],[Pop Days]]</f>
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
@@ -9719,44 +9719,44 @@
         <v>68</v>
       </c>
       <c r="D78">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E78">
-        <f t="shared" si="22"/>
-        <v>3</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="F78">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="G78">
-        <f t="shared" si="22"/>
-        <v>3</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="H78">
-        <f t="shared" si="22"/>
-        <v>4</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="I78">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="J78">
-        <f t="shared" si="22"/>
-        <v>5</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="K78">
-        <f t="shared" si="22"/>
-        <v>11</v>
+        <f t="shared" si="16"/>
+        <v>6</v>
       </c>
       <c r="L78">
-        <f t="shared" si="22"/>
-        <v>8</v>
+        <f t="shared" si="16"/>
+        <v>4</v>
       </c>
       <c r="M78">
         <f>Table2[[#This Row],[Off Days]]+Table2[[#This Row],[Pop Days]]</f>
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
@@ -9765,39 +9765,39 @@
         <v>68</v>
       </c>
       <c r="D79">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E79">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F79">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G79">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H79">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I79">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J79">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K79">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L79">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M79" s="6">
@@ -9811,39 +9811,39 @@
         <v>68</v>
       </c>
       <c r="D80">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E80">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F80">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G80">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H80">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I80">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J80">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K80">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L80">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M80" s="6">
@@ -9861,44 +9861,44 @@
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8">
-        <f t="shared" ref="D81:L81" si="23">SUM(D76:D78)</f>
+        <f t="shared" ref="D81:L81" si="17">SUM(D76:D78)</f>
+        <v>4</v>
+      </c>
+      <c r="E81" s="8">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="F81" s="8">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="G81" s="8">
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
-      <c r="E81" s="8">
-        <f t="shared" si="23"/>
+      <c r="H81" s="8">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="I81" s="8">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="J81" s="8">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="K81" s="8">
+        <f t="shared" si="17"/>
         <v>14</v>
       </c>
-      <c r="F81" s="8">
-        <f t="shared" si="23"/>
-        <v>4</v>
-      </c>
-      <c r="G81" s="8">
-        <f t="shared" si="23"/>
-        <v>10</v>
-      </c>
-      <c r="H81" s="8">
-        <f t="shared" si="23"/>
-        <v>7</v>
-      </c>
-      <c r="I81" s="8">
-        <f t="shared" si="23"/>
-        <v>11</v>
-      </c>
-      <c r="J81" s="8">
-        <f t="shared" si="23"/>
-        <v>12</v>
-      </c>
-      <c r="K81" s="8">
-        <f t="shared" si="23"/>
-        <v>28</v>
-      </c>
       <c r="L81" s="8">
-        <f t="shared" si="23"/>
-        <v>35</v>
+        <f t="shared" si="17"/>
+        <v>18</v>
       </c>
       <c r="M81" s="8">
         <f>Table2[[#This Row],[Off Days]]+Table2[[#This Row],[Pop Days]]</f>
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
@@ -9908,44 +9908,44 @@
       <c r="B82" s="10"/>
       <c r="C82" s="11"/>
       <c r="D82" s="10">
-        <f t="shared" ref="D82:L82" si="24">D64+D75+D81</f>
-        <v>39</v>
+        <f t="shared" ref="D82:L82" si="18">D64+D75+D81</f>
+        <v>20</v>
       </c>
       <c r="E82" s="10">
-        <f t="shared" si="24"/>
-        <v>96</v>
+        <f t="shared" si="18"/>
+        <v>46</v>
       </c>
       <c r="F82" s="10">
-        <f t="shared" si="24"/>
-        <v>32</v>
+        <f t="shared" si="18"/>
+        <v>18</v>
       </c>
       <c r="G82" s="10">
-        <f t="shared" si="24"/>
-        <v>91</v>
+        <f t="shared" si="18"/>
+        <v>48</v>
       </c>
       <c r="H82" s="10">
-        <f t="shared" si="24"/>
-        <v>36</v>
+        <f t="shared" si="18"/>
+        <v>20</v>
       </c>
       <c r="I82" s="10">
-        <f t="shared" si="24"/>
-        <v>98</v>
+        <f t="shared" si="18"/>
+        <v>45</v>
       </c>
       <c r="J82" s="10">
-        <f t="shared" si="24"/>
-        <v>69</v>
+        <f t="shared" si="18"/>
+        <v>35</v>
       </c>
       <c r="K82" s="10">
-        <f t="shared" si="24"/>
-        <v>176</v>
+        <f t="shared" si="18"/>
+        <v>93</v>
       </c>
       <c r="L82" s="10">
-        <f t="shared" si="24"/>
-        <v>285</v>
+        <f t="shared" si="18"/>
+        <v>139</v>
       </c>
       <c r="M82" s="10">
         <f>Table2[[#This Row],[Off Days]]+Table2[[#This Row],[Pop Days]]</f>
-        <v>461</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3"/>

--- a/PlayoffGameCalculator.xlsx
+++ b/PlayoffGameCalculator.xlsx
@@ -882,10 +882,10 @@
     <tableColumn id="18" name="Week 4" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="2">
       <calculatedColumnFormula>SUM(INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),23):INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),29))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Week 5" dataDxfId="19" totalsRowDxfId="1">
+    <tableColumn id="2" name="Week 5" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="1">
       <calculatedColumnFormula>SUM(INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),30):INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),36))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Week 6" dataDxfId="18" totalsRowDxfId="0">
+    <tableColumn id="12" name="Week 6" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="0">
       <calculatedColumnFormula>SUM(INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),37):INDEX($R$1:$BH$32,MATCH($A7,$R$1:$R$32,0),43))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1215,11 +1215,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
@@ -1235,11 +1235,10 @@
     <col min="12" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.6640625" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="4.88671875" hidden="1"/>
-    <col min="19" max="19" width="5.77734375" hidden="1"/>
-    <col min="20" max="47" width="3" hidden="1"/>
-    <col min="48" max="60" width="3.21875" hidden="1"/>
-    <col min="61" max="16384" width="8.88671875" hidden="1"/>
+    <col min="18" max="18" width="4.88671875" customWidth="1"/>
+    <col min="19" max="19" width="5.77734375" customWidth="1"/>
+    <col min="20" max="47" width="3" customWidth="1"/>
+    <col min="48" max="60" width="3.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.3">
@@ -7794,8 +7793,14 @@
         <f>SUBTOTAL(109,Table1[Week 4])</f>
         <v>104</v>
       </c>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
+      <c r="P37" s="15">
+        <f>SUBTOTAL(109,Table1[Week 5])</f>
+        <v>110</v>
+      </c>
+      <c r="Q37" s="15">
+        <f>SUBTOTAL(109,Table1[Week 6])</f>
+        <v>110</v>
+      </c>
     </row>
     <row r="38" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>

--- a/PlayoffGameCalculator.xlsx
+++ b/PlayoffGameCalculator.xlsx
@@ -1215,11 +1215,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
@@ -1235,10 +1235,11 @@
     <col min="12" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.6640625" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="4.88671875" customWidth="1"/>
-    <col min="19" max="19" width="5.77734375" customWidth="1"/>
-    <col min="20" max="47" width="3" customWidth="1"/>
-    <col min="48" max="60" width="3.21875" customWidth="1"/>
+    <col min="18" max="18" width="4.88671875" hidden="1"/>
+    <col min="19" max="19" width="5.77734375" hidden="1"/>
+    <col min="20" max="47" width="3" hidden="1"/>
+    <col min="48" max="60" width="3.21875" hidden="1"/>
+    <col min="61" max="16384" width="8.88671875" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.3">
